--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48A61EE-A70E-49AB-B2A6-7BD430F437BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80BFA27-1036-4391-BE8D-632B30E871DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,14 @@
   </si>
   <si>
     <t>chimValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,9 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
@@ -987,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3181,9 +3186,91 @@
         <v>0</v>
       </c>
     </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>52000</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>6.2191000000000005E+104</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>12200</v>
+      </c>
+      <c r="K54">
+        <v>25</v>
+      </c>
+      <c r="L54">
+        <v>10600</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>25</v>
+      </c>
+      <c r="D55">
+        <v>54000</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>3.1717410000000003E+106</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>12200</v>
+      </c>
+      <c r="K55">
+        <v>25</v>
+      </c>
+      <c r="L55">
+        <v>10800</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E33:E53 G33:J53 K2:K53 M2:M53 A2:J32 A33:C53">
+  <conditionalFormatting sqref="A2:J32 K2:K53 G33:J53 G54:K55 M2:M55 A33:C55 E33:E55">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3195,10 +3282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3213,17 +3300,17 @@
     <col min="8" max="8" width="11.375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="11" customWidth="1"/>
     <col min="10" max="10" width="19.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="19.25" style="11" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="8.75" style="9"/>
+    <col min="11" max="12" width="19.25" style="11" customWidth="1"/>
+    <col min="13" max="13" width="14.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="4"/>
@@ -3234,11 +3321,10 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7"/>
@@ -3249,26 +3335,25 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -3293,21 +3378,18 @@
         <v>19</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="21" t="s">
         <v>54</v>
       </c>
+      <c r="M7" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="N7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="O7" s="21"/>
       <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>21</v>
       </c>
@@ -3321,26 +3403,22 @@
       <c r="H8" s="12"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="22">
-        <f>SUM(K9:K61)</f>
-        <v>600000</v>
-      </c>
-      <c r="N8" s="16" t="s">
+      <c r="M8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="16">
+      <c r="N8" s="16">
         <v>4</v>
       </c>
-      <c r="P8" s="17">
-        <f>POWER(10,O8)</f>
+      <c r="O8" s="17">
+        <f>POWER(10,N8)</f>
         <v>10000</v>
       </c>
-      <c r="Q8" s="17" t="str">
-        <f>1&amp;RIGHT(P8,O8)</f>
+      <c r="P8" s="17" t="str">
+        <f>1&amp;RIGHT(O8,N8)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>24</v>
       </c>
@@ -3366,32 +3444,29 @@
         <v>29</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f t="shared" ref="J9:J60" si="0">VLOOKUP(I9,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I9,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
-      <c r="K9" s="22">
-        <v>100</v>
-      </c>
-      <c r="L9" s="11">
-        <f t="shared" ref="L9:L60" si="1">$B$14*E9</f>
+      <c r="K9" s="11">
+        <f>$B$14*E9</f>
         <v>200</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="16">
+      <c r="N9" s="16">
         <v>8</v>
       </c>
-      <c r="P9" s="17">
-        <f t="shared" ref="P9:P32" si="2">POWER(10,O9)</f>
+      <c r="O9" s="17">
+        <f t="shared" ref="O9:O32" si="0">POWER(10,N9)</f>
         <v>100000000</v>
       </c>
-      <c r="Q9" s="17" t="str">
-        <f t="shared" ref="Q9:Q11" si="3">1&amp;RIGHT(P9,O9)</f>
+      <c r="P9" s="17" t="str">
+        <f t="shared" ref="P9:P11" si="1">1&amp;RIGHT(O9,N9)</f>
         <v>100000000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
@@ -3403,11 +3478,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="17" t="str">
-        <f t="shared" ref="F10:F60" si="4">H10&amp;I10</f>
+        <f t="shared" ref="F10:F60" si="2">H10&amp;I10</f>
         <v>51경</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" ref="G10:G60" si="5">H10*J10</f>
+        <f t="shared" ref="G10:G60" si="3">H10*J10</f>
         <v>5.1E+17</v>
       </c>
       <c r="H10" s="17">
@@ -3415,83 +3490,77 @@
         <v>51</v>
       </c>
       <c r="I10" s="16" t="str" cm="1">
-        <f t="array" ref="I10">IF(AND(H9&gt;100,H10&lt;100),INDEX(N:N,MATCH(I9,N:N,0)+1,0),I9)</f>
+        <f t="array" ref="I10">IF(AND(H9&gt;100,H10&lt;100),INDEX(M:M,MATCH(I9,M:M,0)+1,0),I9)</f>
         <v>경</v>
       </c>
       <c r="J10" s="16" t="str">
+        <f>VLOOKUP(I10,M:P,4,FALSE)</f>
+        <v>10000000000000000</v>
+      </c>
+      <c r="K10" s="11">
+        <f>$B$14*E10</f>
+        <v>400</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="16">
+        <v>12</v>
+      </c>
+      <c r="O10" s="17">
         <f t="shared" si="0"/>
-        <v>10000000000000000</v>
-      </c>
-      <c r="K10" s="22">
-        <v>200</v>
-      </c>
-      <c r="L10" s="11">
+        <v>1000000000000</v>
+      </c>
+      <c r="P10" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="16">
-        <v>12</v>
-      </c>
-      <c r="P10" s="17">
-        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
-      <c r="Q10" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" s="15"/>
       <c r="E11" s="16">
         <v>3</v>
       </c>
       <c r="F11" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2601경</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H60" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H62" si="4">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
-        <f t="array" ref="I11">IF(AND(H10&gt;100,H11&lt;100),INDEX(N:N,MATCH(I10,N:N,0)+1,0),I10)</f>
+        <f t="array" ref="I11">IF(AND(H10&gt;100,H11&lt;100),INDEX(M:M,MATCH(I10,M:M,0)+1,0),I10)</f>
         <v>경</v>
       </c>
       <c r="J11" s="16" t="str">
+        <f>VLOOKUP(I11,M:P,4,FALSE)</f>
+        <v>10000000000000000</v>
+      </c>
+      <c r="K11" s="11">
+        <f>$B$14*E11</f>
+        <v>600</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="16">
+        <v>16</v>
+      </c>
+      <c r="O11" s="17">
         <f t="shared" si="0"/>
+        <v>1E+16</v>
+      </c>
+      <c r="P11" s="17" t="str">
+        <f t="shared" si="1"/>
         <v>10000000000000000</v>
       </c>
-      <c r="K11" s="22">
-        <v>300</v>
-      </c>
-      <c r="L11" s="11">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="16">
-        <v>16</v>
-      </c>
-      <c r="P11" s="17">
-        <f t="shared" si="2"/>
-        <v>1E+16</v>
-      </c>
-      <c r="Q11" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>10000000000000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>52</v>
       </c>
@@ -3501,48 +3570,45 @@
         <v>4</v>
       </c>
       <c r="F12" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>13.2651해</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="3"/>
+        <v>1.3265100000000001E+21</v>
+      </c>
+      <c r="H12" s="17">
         <f t="shared" si="4"/>
-        <v>13.2651해</v>
-      </c>
-      <c r="G12" s="17">
-        <f t="shared" si="5"/>
-        <v>1.3265100000000001E+21</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="6"/>
         <v>13.2651</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
-        <f t="array" ref="I12">IF(AND(H11&gt;100,H12&lt;100),INDEX(N:N,MATCH(I11,N:N,0)+1,0),I11)</f>
+        <f t="array" ref="I12">IF(AND(H11&gt;100,H12&lt;100),INDEX(M:M,MATCH(I11,M:M,0)+1,0),I11)</f>
         <v>해</v>
       </c>
       <c r="J12" s="16" t="str">
+        <f>VLOOKUP(I12,M:P,4,FALSE)</f>
+        <v>1E+20</v>
+      </c>
+      <c r="K12" s="11">
+        <f>$B$14*E12</f>
+        <v>800</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="16">
+        <v>20</v>
+      </c>
+      <c r="O12" s="17">
         <f t="shared" si="0"/>
         <v>1E+20</v>
       </c>
-      <c r="K12" s="22">
-        <v>400</v>
-      </c>
-      <c r="L12" s="11">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="16">
-        <v>20</v>
-      </c>
-      <c r="P12" s="17">
-        <f t="shared" si="2"/>
+      <c r="P12" s="17" t="str">
+        <f t="shared" ref="P12:P32" si="5">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
-      <c r="Q12" s="17" t="str">
-        <f t="shared" ref="Q12:Q32" si="7">RIGHT(P12,O12)</f>
-        <v>1E+20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
@@ -3554,48 +3620,45 @@
         <v>5</v>
       </c>
       <c r="F13" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>676.5201해</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="3"/>
+        <v>6.7652009999999995E+22</v>
+      </c>
+      <c r="H13" s="17">
         <f t="shared" si="4"/>
-        <v>676.5201해</v>
-      </c>
-      <c r="G13" s="17">
+        <v>676.52009999999996</v>
+      </c>
+      <c r="I13" s="16" t="str" cm="1">
+        <f t="array" ref="I13">IF(AND(H12&gt;100,H13&lt;100),INDEX(M:M,MATCH(I12,M:M,0)+1,0),I12)</f>
+        <v>해</v>
+      </c>
+      <c r="J13" s="16" t="str">
+        <f>VLOOKUP(I13,M:P,4,FALSE)</f>
+        <v>1E+20</v>
+      </c>
+      <c r="K13" s="11">
+        <f>$B$14*E13</f>
+        <v>1000</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="16">
+        <v>24</v>
+      </c>
+      <c r="O13" s="17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999998E+23</v>
+      </c>
+      <c r="P13" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>6.7652009999999995E+22</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" si="6"/>
-        <v>676.52009999999996</v>
-      </c>
-      <c r="I13" s="16" t="str" cm="1">
-        <f t="array" ref="I13">IF(AND(H12&gt;100,H13&lt;100),INDEX(N:N,MATCH(I12,N:N,0)+1,0),I12)</f>
-        <v>해</v>
-      </c>
-      <c r="J13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+20</v>
-      </c>
-      <c r="K13" s="22">
-        <v>500</v>
-      </c>
-      <c r="L13" s="11">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="16">
-        <v>24</v>
-      </c>
-      <c r="P13" s="17">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999998E+23</v>
-      </c>
-      <c r="Q13" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>56</v>
       </c>
@@ -3607,95 +3670,89 @@
         <v>6</v>
       </c>
       <c r="F14" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>3.4503자</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="3"/>
+        <v>3.4503000000000005E+24</v>
+      </c>
+      <c r="H14" s="17">
         <f t="shared" si="4"/>
-        <v>3.4503자</v>
-      </c>
-      <c r="G14" s="17">
+        <v>3.4503000000000004</v>
+      </c>
+      <c r="I14" s="16" t="str" cm="1">
+        <f t="array" ref="I14">IF(AND(H13&gt;100,H14&lt;100),INDEX(M:M,MATCH(I13,M:M,0)+1,0),I13)</f>
+        <v>자</v>
+      </c>
+      <c r="J14" s="16" t="str">
+        <f>VLOOKUP(I14,M:P,4,FALSE)</f>
+        <v>1E+24</v>
+      </c>
+      <c r="K14" s="11">
+        <f>$B$14*E14</f>
+        <v>1200</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="16">
+        <v>28</v>
+      </c>
+      <c r="O14" s="17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999996E+27</v>
+      </c>
+      <c r="P14" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>3.4503000000000005E+24</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="6"/>
-        <v>3.4503000000000004</v>
-      </c>
-      <c r="I14" s="16" t="str" cm="1">
-        <f t="array" ref="I14">IF(AND(H13&gt;100,H14&lt;100),INDEX(N:N,MATCH(I13,N:N,0)+1,0),I13)</f>
-        <v>자</v>
-      </c>
-      <c r="J14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+24</v>
-      </c>
-      <c r="K14" s="22">
-        <v>600</v>
-      </c>
-      <c r="L14" s="11">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="16">
-        <v>28</v>
-      </c>
-      <c r="P14" s="17">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999996E+27</v>
-      </c>
-      <c r="Q14" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+28</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15" s="15"/>
       <c r="E15" s="16">
         <v>7</v>
       </c>
       <c r="F15" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>175.9653자</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="3"/>
+        <v>1.7596529999999999E+26</v>
+      </c>
+      <c r="H15" s="17">
         <f t="shared" si="4"/>
-        <v>175.9653자</v>
-      </c>
-      <c r="G15" s="17">
+        <v>175.96530000000001</v>
+      </c>
+      <c r="I15" s="16" t="str" cm="1">
+        <f t="array" ref="I15">IF(AND(H14&gt;100,H15&lt;100),INDEX(M:M,MATCH(I14,M:M,0)+1,0),I14)</f>
+        <v>자</v>
+      </c>
+      <c r="J15" s="16" t="str">
+        <f>VLOOKUP(I15,M:P,4,FALSE)</f>
+        <v>1E+24</v>
+      </c>
+      <c r="K15" s="11">
+        <f>$B$14*E15</f>
+        <v>1400</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="16">
+        <v>32</v>
+      </c>
+      <c r="O15" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+32</v>
+      </c>
+      <c r="P15" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>1.7596529999999999E+26</v>
-      </c>
-      <c r="H15" s="17">
-        <f t="shared" si="6"/>
-        <v>175.96530000000001</v>
-      </c>
-      <c r="I15" s="16" t="str" cm="1">
-        <f t="array" ref="I15">IF(AND(H14&gt;100,H15&lt;100),INDEX(N:N,MATCH(I14,N:N,0)+1,0),I14)</f>
-        <v>자</v>
-      </c>
-      <c r="J15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+24</v>
-      </c>
-      <c r="K15" s="22">
-        <v>700</v>
-      </c>
-      <c r="L15" s="11">
-        <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="16">
-        <v>32</v>
-      </c>
-      <c r="P15" s="17">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E+32</v>
-      </c>
-      <c r="Q15" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+32</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -3703,826 +3760,783 @@
         <v>8</v>
       </c>
       <c r="F16" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>8974.2303자</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="3"/>
+        <v>8.9742302999999997E+27</v>
+      </c>
+      <c r="H16" s="17">
         <f t="shared" si="4"/>
-        <v>8974.2303자</v>
-      </c>
-      <c r="G16" s="17">
+        <v>8974.2302999999993</v>
+      </c>
+      <c r="I16" s="16" t="str" cm="1">
+        <f t="array" ref="I16">IF(AND(H15&gt;100,H16&lt;100),INDEX(M:M,MATCH(I15,M:M,0)+1,0),I15)</f>
+        <v>자</v>
+      </c>
+      <c r="J16" s="16" t="str">
+        <f>VLOOKUP(I16,M:P,4,FALSE)</f>
+        <v>1E+24</v>
+      </c>
+      <c r="K16" s="11">
+        <f>$B$14*E16</f>
+        <v>1600</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="16">
+        <v>36</v>
+      </c>
+      <c r="O16" s="17">
+        <f t="shared" si="0"/>
+        <v>1E+36</v>
+      </c>
+      <c r="P16" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>8.9742302999999997E+27</v>
-      </c>
-      <c r="H16" s="17">
-        <f t="shared" si="6"/>
-        <v>8974.2302999999993</v>
-      </c>
-      <c r="I16" s="16" t="str" cm="1">
-        <f t="array" ref="I16">IF(AND(H15&gt;100,H16&lt;100),INDEX(N:N,MATCH(I15,N:N,0)+1,0),I15)</f>
-        <v>자</v>
-      </c>
-      <c r="J16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+24</v>
-      </c>
-      <c r="K16" s="22">
-        <v>800</v>
-      </c>
-      <c r="L16" s="11">
-        <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="16">
-        <v>36</v>
-      </c>
-      <c r="P16" s="17">
-        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
-      <c r="Q16" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>1E+36</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" s="15"/>
       <c r="E17" s="16">
         <v>9</v>
       </c>
       <c r="F17" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>45.7686양</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="3"/>
+        <v>4.5768600000000005E+29</v>
+      </c>
+      <c r="H17" s="17">
         <f t="shared" si="4"/>
-        <v>45.7686양</v>
-      </c>
-      <c r="G17" s="17">
+        <v>45.768600000000006</v>
+      </c>
+      <c r="I17" s="16" t="str" cm="1">
+        <f t="array" ref="I17">IF(AND(H16&gt;100,H17&lt;100),INDEX(M:M,MATCH(I16,M:M,0)+1,0),I16)</f>
+        <v>양</v>
+      </c>
+      <c r="J17" s="16" t="str">
+        <f>VLOOKUP(I17,M:P,4,FALSE)</f>
+        <v>1E+28</v>
+      </c>
+      <c r="K17" s="11">
+        <f>$B$14*E17</f>
+        <v>1800</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="16">
+        <v>40</v>
+      </c>
+      <c r="O17" s="17">
+        <f t="shared" si="0"/>
+        <v>1E+40</v>
+      </c>
+      <c r="P17" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>4.5768600000000005E+29</v>
-      </c>
-      <c r="H17" s="17">
-        <f t="shared" si="6"/>
-        <v>45.768600000000006</v>
-      </c>
-      <c r="I17" s="16" t="str" cm="1">
-        <f t="array" ref="I17">IF(AND(H16&gt;100,H17&lt;100),INDEX(N:N,MATCH(I16,N:N,0)+1,0),I16)</f>
-        <v>양</v>
-      </c>
-      <c r="J17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+28</v>
-      </c>
-      <c r="K17" s="22">
-        <v>900</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" si="1"/>
-        <v>1800</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="16">
-        <v>40</v>
-      </c>
-      <c r="P17" s="17">
-        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
-      <c r="Q17" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>1E+40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18" s="15"/>
       <c r="E18" s="16">
         <v>10</v>
       </c>
       <c r="F18" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>2334.1986양</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="3"/>
+        <v>2.3341986000000001E+31</v>
+      </c>
+      <c r="H18" s="17">
         <f t="shared" si="4"/>
-        <v>2334.1986양</v>
-      </c>
-      <c r="G18" s="17">
+        <v>2334.1986000000002</v>
+      </c>
+      <c r="I18" s="16" t="str" cm="1">
+        <f t="array" ref="I18">IF(AND(H17&gt;100,H18&lt;100),INDEX(M:M,MATCH(I17,M:M,0)+1,0),I17)</f>
+        <v>양</v>
+      </c>
+      <c r="J18" s="16" t="str">
+        <f>VLOOKUP(I18,M:P,4,FALSE)</f>
+        <v>1E+28</v>
+      </c>
+      <c r="K18" s="11">
+        <f>$B$14*E18</f>
+        <v>2000</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="16">
+        <v>44</v>
+      </c>
+      <c r="O18" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+44</v>
+      </c>
+      <c r="P18" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>2.3341986000000001E+31</v>
-      </c>
-      <c r="H18" s="17">
-        <f t="shared" si="6"/>
-        <v>2334.1986000000002</v>
-      </c>
-      <c r="I18" s="16" t="str" cm="1">
-        <f t="array" ref="I18">IF(AND(H17&gt;100,H18&lt;100),INDEX(N:N,MATCH(I17,N:N,0)+1,0),I17)</f>
-        <v>양</v>
-      </c>
-      <c r="J18" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+28</v>
-      </c>
-      <c r="K18" s="22">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="11">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="16">
-        <v>44</v>
-      </c>
-      <c r="P18" s="17">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E+44</v>
-      </c>
-      <c r="Q18" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+44</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C19" s="15"/>
       <c r="E19" s="16">
         <v>11</v>
       </c>
       <c r="F19" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>11.9045구</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1904500000000001E+33</v>
+      </c>
+      <c r="H19" s="17">
         <f t="shared" si="4"/>
-        <v>11.9045구</v>
-      </c>
-      <c r="G19" s="17">
+        <v>11.904500000000001</v>
+      </c>
+      <c r="I19" s="16" t="str" cm="1">
+        <f t="array" ref="I19">IF(AND(H18&gt;100,H19&lt;100),INDEX(M:M,MATCH(I18,M:M,0)+1,0),I18)</f>
+        <v>구</v>
+      </c>
+      <c r="J19" s="16" t="str">
+        <f>VLOOKUP(I19,M:P,4,FALSE)</f>
+        <v>1E+32</v>
+      </c>
+      <c r="K19" s="11">
+        <f>$B$14*E19</f>
+        <v>2200</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="16">
+        <v>48</v>
+      </c>
+      <c r="O19" s="17">
+        <f t="shared" si="0"/>
+        <v>1E+48</v>
+      </c>
+      <c r="P19" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>1.1904500000000001E+33</v>
-      </c>
-      <c r="H19" s="17">
-        <f t="shared" si="6"/>
-        <v>11.904500000000001</v>
-      </c>
-      <c r="I19" s="16" t="str" cm="1">
-        <f t="array" ref="I19">IF(AND(H18&gt;100,H19&lt;100),INDEX(N:N,MATCH(I18,N:N,0)+1,0),I18)</f>
-        <v>구</v>
-      </c>
-      <c r="J19" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+32</v>
-      </c>
-      <c r="K19" s="22">
-        <v>1200</v>
-      </c>
-      <c r="L19" s="11">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" s="16">
-        <v>48</v>
-      </c>
-      <c r="P19" s="17">
-        <f t="shared" si="2"/>
         <v>1E+48</v>
       </c>
-      <c r="Q19" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>1E+48</v>
-      </c>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C20" s="15"/>
       <c r="E20" s="16">
         <v>12</v>
       </c>
       <c r="F20" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>607.1295구</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="3"/>
+        <v>6.0712950000000003E+34</v>
+      </c>
+      <c r="H20" s="17">
         <f t="shared" si="4"/>
-        <v>607.1295구</v>
-      </c>
-      <c r="G20" s="17">
+        <v>607.12950000000001</v>
+      </c>
+      <c r="I20" s="16" t="str" cm="1">
+        <f t="array" ref="I20">IF(AND(H19&gt;100,H20&lt;100),INDEX(M:M,MATCH(I19,M:M,0)+1,0),I19)</f>
+        <v>구</v>
+      </c>
+      <c r="J20" s="16" t="str">
+        <f>VLOOKUP(I20,M:P,4,FALSE)</f>
+        <v>1E+32</v>
+      </c>
+      <c r="K20" s="11">
+        <f>$B$14*E20</f>
+        <v>2400</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="16">
+        <v>52</v>
+      </c>
+      <c r="O20" s="17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999999E+51</v>
+      </c>
+      <c r="P20" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>6.0712950000000003E+34</v>
-      </c>
-      <c r="H20" s="17">
-        <f t="shared" si="6"/>
-        <v>607.12950000000001</v>
-      </c>
-      <c r="I20" s="16" t="str" cm="1">
-        <f t="array" ref="I20">IF(AND(H19&gt;100,H20&lt;100),INDEX(N:N,MATCH(I19,N:N,0)+1,0),I19)</f>
-        <v>구</v>
-      </c>
-      <c r="J20" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+32</v>
-      </c>
-      <c r="K20" s="22">
-        <v>1400</v>
-      </c>
-      <c r="L20" s="11">
-        <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20" s="16">
-        <v>52</v>
-      </c>
-      <c r="P20" s="17">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999999E+51</v>
-      </c>
-      <c r="Q20" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+52</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C21" s="15"/>
       <c r="E21" s="16">
         <v>13</v>
       </c>
       <c r="F21" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>3.0964간</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="3"/>
+        <v>3.0963999999999999E+36</v>
+      </c>
+      <c r="H21" s="17">
         <f t="shared" si="4"/>
-        <v>3.0964간</v>
-      </c>
-      <c r="G21" s="17">
+        <v>3.0964</v>
+      </c>
+      <c r="I21" s="16" t="str" cm="1">
+        <f t="array" ref="I21">IF(AND(H20&gt;100,H21&lt;100),INDEX(M:M,MATCH(I20,M:M,0)+1,0),I20)</f>
+        <v>간</v>
+      </c>
+      <c r="J21" s="16" t="str">
+        <f>VLOOKUP(I21,M:P,4,FALSE)</f>
+        <v>1E+36</v>
+      </c>
+      <c r="K21" s="11">
+        <f>$B$14*E21</f>
+        <v>2600</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="16">
+        <v>56</v>
+      </c>
+      <c r="O21" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+56</v>
+      </c>
+      <c r="P21" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>3.0963999999999999E+36</v>
-      </c>
-      <c r="H21" s="17">
-        <f t="shared" si="6"/>
-        <v>3.0964</v>
-      </c>
-      <c r="I21" s="16" t="str" cm="1">
-        <f t="array" ref="I21">IF(AND(H20&gt;100,H21&lt;100),INDEX(N:N,MATCH(I20,N:N,0)+1,0),I20)</f>
-        <v>간</v>
-      </c>
-      <c r="J21" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+36</v>
-      </c>
-      <c r="K21" s="22">
-        <v>1600</v>
-      </c>
-      <c r="L21" s="11">
-        <f t="shared" si="1"/>
-        <v>2600</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="16">
-        <v>56</v>
-      </c>
-      <c r="P21" s="17">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E+56</v>
-      </c>
-      <c r="Q21" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+56</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C22" s="15"/>
       <c r="E22" s="16">
         <v>14</v>
       </c>
       <c r="F22" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>157.9164간</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="3"/>
+        <v>1.5791640000000002E+38</v>
+      </c>
+      <c r="H22" s="17">
         <f t="shared" si="4"/>
-        <v>157.9164간</v>
-      </c>
-      <c r="G22" s="17">
+        <v>157.91640000000001</v>
+      </c>
+      <c r="I22" s="16" t="str" cm="1">
+        <f t="array" ref="I22">IF(AND(H21&gt;100,H22&lt;100),INDEX(M:M,MATCH(I21,M:M,0)+1,0),I21)</f>
+        <v>간</v>
+      </c>
+      <c r="J22" s="16" t="str">
+        <f>VLOOKUP(I22,M:P,4,FALSE)</f>
+        <v>1E+36</v>
+      </c>
+      <c r="K22" s="11">
+        <f>$B$14*E22</f>
+        <v>2800</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="16">
+        <v>60</v>
+      </c>
+      <c r="O22" s="17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+59</v>
+      </c>
+      <c r="P22" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>1.5791640000000002E+38</v>
-      </c>
-      <c r="H22" s="17">
-        <f t="shared" si="6"/>
-        <v>157.91640000000001</v>
-      </c>
-      <c r="I22" s="16" t="str" cm="1">
-        <f t="array" ref="I22">IF(AND(H21&gt;100,H22&lt;100),INDEX(N:N,MATCH(I21,N:N,0)+1,0),I21)</f>
-        <v>간</v>
-      </c>
-      <c r="J22" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+36</v>
-      </c>
-      <c r="K22" s="22">
-        <v>1800</v>
-      </c>
-      <c r="L22" s="11">
-        <f t="shared" si="1"/>
-        <v>2800</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="16">
-        <v>60</v>
-      </c>
-      <c r="P22" s="17">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999995E+59</v>
-      </c>
-      <c r="Q22" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+60</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E23" s="16">
         <v>15</v>
       </c>
       <c r="F23" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>8053.7364간</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="3"/>
+        <v>8.0537364000000001E+39</v>
+      </c>
+      <c r="H23" s="17">
         <f t="shared" si="4"/>
-        <v>8053.7364간</v>
-      </c>
-      <c r="G23" s="17">
+        <v>8053.7363999999998</v>
+      </c>
+      <c r="I23" s="16" t="str" cm="1">
+        <f t="array" ref="I23">IF(AND(H22&gt;100,H23&lt;100),INDEX(M:M,MATCH(I22,M:M,0)+1,0),I22)</f>
+        <v>간</v>
+      </c>
+      <c r="J23" s="16" t="str">
+        <f>VLOOKUP(I23,M:P,4,FALSE)</f>
+        <v>1E+36</v>
+      </c>
+      <c r="K23" s="11">
+        <f>$B$14*E23</f>
+        <v>3000</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="16">
+        <v>64</v>
+      </c>
+      <c r="O23" s="17">
+        <f t="shared" si="0"/>
+        <v>1E+64</v>
+      </c>
+      <c r="P23" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>8.0537364000000001E+39</v>
-      </c>
-      <c r="H23" s="17">
-        <f t="shared" si="6"/>
-        <v>8053.7363999999998</v>
-      </c>
-      <c r="I23" s="16" t="str" cm="1">
-        <f t="array" ref="I23">IF(AND(H22&gt;100,H23&lt;100),INDEX(N:N,MATCH(I22,N:N,0)+1,0),I22)</f>
-        <v>간</v>
-      </c>
-      <c r="J23" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+36</v>
-      </c>
-      <c r="K23" s="22">
-        <v>2000</v>
-      </c>
-      <c r="L23" s="11">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="16">
-        <v>64</v>
-      </c>
-      <c r="P23" s="17">
-        <f t="shared" si="2"/>
         <v>1E+64</v>
       </c>
-      <c r="Q23" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>1E+64</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E24" s="16">
         <v>16</v>
       </c>
       <c r="F24" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>41.0741정</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="3"/>
+        <v>4.1074099999999999E+41</v>
+      </c>
+      <c r="H24" s="17">
         <f t="shared" si="4"/>
-        <v>41.0741정</v>
-      </c>
-      <c r="G24" s="17">
+        <v>41.074100000000001</v>
+      </c>
+      <c r="I24" s="16" t="str" cm="1">
+        <f t="array" ref="I24">IF(AND(H23&gt;100,H24&lt;100),INDEX(M:M,MATCH(I23,M:M,0)+1,0),I23)</f>
+        <v>정</v>
+      </c>
+      <c r="J24" s="16" t="str">
+        <f>VLOOKUP(I24,M:P,4,FALSE)</f>
+        <v>1E+40</v>
+      </c>
+      <c r="K24" s="11">
+        <f>$B$14*E24</f>
+        <v>3200</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="16">
+        <v>68</v>
+      </c>
+      <c r="O24" s="17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="P24" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>4.1074099999999999E+41</v>
-      </c>
-      <c r="H24" s="17">
-        <f t="shared" si="6"/>
-        <v>41.074100000000001</v>
-      </c>
-      <c r="I24" s="16" t="str" cm="1">
-        <f t="array" ref="I24">IF(AND(H23&gt;100,H24&lt;100),INDEX(N:N,MATCH(I23,N:N,0)+1,0),I23)</f>
-        <v>정</v>
-      </c>
-      <c r="J24" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+40</v>
-      </c>
-      <c r="K24" s="22">
-        <v>2200</v>
-      </c>
-      <c r="L24" s="11">
-        <f t="shared" si="1"/>
-        <v>3200</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="O24" s="16">
-        <v>68</v>
-      </c>
-      <c r="P24" s="17">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999995E+67</v>
-      </c>
-      <c r="Q24" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+68</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E25" s="16">
         <v>17</v>
       </c>
       <c r="F25" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>2094.7791정</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="3"/>
+        <v>2.0947791000000003E+43</v>
+      </c>
+      <c r="H25" s="17">
         <f t="shared" si="4"/>
-        <v>2094.7791정</v>
-      </c>
-      <c r="G25" s="17">
+        <v>2094.7791000000002</v>
+      </c>
+      <c r="I25" s="16" t="str" cm="1">
+        <f t="array" ref="I25">IF(AND(H24&gt;100,H25&lt;100),INDEX(M:M,MATCH(I24,M:M,0)+1,0),I24)</f>
+        <v>정</v>
+      </c>
+      <c r="J25" s="16" t="str">
+        <f>VLOOKUP(I25,M:P,4,FALSE)</f>
+        <v>1E+40</v>
+      </c>
+      <c r="K25" s="11">
+        <f>$B$14*E25</f>
+        <v>3400</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="16">
+        <v>72</v>
+      </c>
+      <c r="O25" s="17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="P25" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>2.0947791000000003E+43</v>
-      </c>
-      <c r="H25" s="17">
-        <f t="shared" si="6"/>
-        <v>2094.7791000000002</v>
-      </c>
-      <c r="I25" s="16" t="str" cm="1">
-        <f t="array" ref="I25">IF(AND(H24&gt;100,H25&lt;100),INDEX(N:N,MATCH(I24,N:N,0)+1,0),I24)</f>
-        <v>정</v>
-      </c>
-      <c r="J25" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+40</v>
-      </c>
-      <c r="K25" s="22">
-        <v>2400</v>
-      </c>
-      <c r="L25" s="11">
-        <f t="shared" si="1"/>
-        <v>3400</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O25" s="16">
-        <v>72</v>
-      </c>
-      <c r="P25" s="17">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999994E+71</v>
-      </c>
-      <c r="Q25" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+72</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E26" s="16">
         <v>18</v>
       </c>
       <c r="F26" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>10.6834재</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="3"/>
+        <v>1.06834E+45</v>
+      </c>
+      <c r="H26" s="17">
         <f t="shared" si="4"/>
-        <v>10.6834재</v>
-      </c>
-      <c r="G26" s="17">
+        <v>10.683399999999999</v>
+      </c>
+      <c r="I26" s="16" t="str" cm="1">
+        <f t="array" ref="I26">IF(AND(H25&gt;100,H26&lt;100),INDEX(M:M,MATCH(I25,M:M,0)+1,0),I25)</f>
+        <v>재</v>
+      </c>
+      <c r="J26" s="16" t="str">
+        <f>VLOOKUP(I26,M:P,4,FALSE)</f>
+        <v>1E+44</v>
+      </c>
+      <c r="K26" s="11">
+        <f>$B$14*E26</f>
+        <v>3600</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="16">
+        <v>76</v>
+      </c>
+      <c r="O26" s="17">
+        <f t="shared" si="0"/>
+        <v>1E+76</v>
+      </c>
+      <c r="P26" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>1.06834E+45</v>
-      </c>
-      <c r="H26" s="17">
-        <f t="shared" si="6"/>
-        <v>10.683399999999999</v>
-      </c>
-      <c r="I26" s="16" t="str" cm="1">
-        <f t="array" ref="I26">IF(AND(H25&gt;100,H26&lt;100),INDEX(N:N,MATCH(I25,N:N,0)+1,0),I25)</f>
-        <v>재</v>
-      </c>
-      <c r="J26" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+44</v>
-      </c>
-      <c r="K26" s="22">
-        <v>2600</v>
-      </c>
-      <c r="L26" s="11">
-        <f t="shared" si="1"/>
-        <v>3600</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O26" s="16">
-        <v>76</v>
-      </c>
-      <c r="P26" s="17">
-        <f t="shared" si="2"/>
         <v>1E+76</v>
       </c>
-      <c r="Q26" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>1E+76</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E27" s="16">
         <v>19</v>
       </c>
       <c r="F27" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>544.8534재</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="3"/>
+        <v>5.4485340000000006E+46</v>
+      </c>
+      <c r="H27" s="17">
         <f t="shared" si="4"/>
-        <v>544.8534재</v>
-      </c>
-      <c r="G27" s="17">
+        <v>544.85339999999997</v>
+      </c>
+      <c r="I27" s="16" t="str" cm="1">
+        <f t="array" ref="I27">IF(AND(H26&gt;100,H27&lt;100),INDEX(M:M,MATCH(I26,M:M,0)+1,0),I26)</f>
+        <v>재</v>
+      </c>
+      <c r="J27" s="16" t="str">
+        <f>VLOOKUP(I27,M:P,4,FALSE)</f>
+        <v>1E+44</v>
+      </c>
+      <c r="K27" s="11">
+        <f>$B$14*E27</f>
+        <v>3800</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="16">
+        <v>80</v>
+      </c>
+      <c r="O27" s="17">
+        <f t="shared" si="0"/>
+        <v>1E+80</v>
+      </c>
+      <c r="P27" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>5.4485340000000006E+46</v>
-      </c>
-      <c r="H27" s="17">
-        <f t="shared" si="6"/>
-        <v>544.85339999999997</v>
-      </c>
-      <c r="I27" s="16" t="str" cm="1">
-        <f t="array" ref="I27">IF(AND(H26&gt;100,H27&lt;100),INDEX(N:N,MATCH(I26,N:N,0)+1,0),I26)</f>
-        <v>재</v>
-      </c>
-      <c r="J27" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+44</v>
-      </c>
-      <c r="K27" s="22">
-        <v>2800</v>
-      </c>
-      <c r="L27" s="11">
-        <f t="shared" si="1"/>
-        <v>3800</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" s="16">
-        <v>80</v>
-      </c>
-      <c r="P27" s="17">
-        <f t="shared" si="2"/>
         <v>1E+80</v>
       </c>
-      <c r="Q27" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>1E+80</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E28" s="16">
         <v>20</v>
       </c>
       <c r="F28" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>2.7788극</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="3"/>
+        <v>2.7788000000000005E+48</v>
+      </c>
+      <c r="H28" s="17">
         <f t="shared" si="4"/>
-        <v>2.7788극</v>
-      </c>
-      <c r="G28" s="17">
+        <v>2.7788000000000004</v>
+      </c>
+      <c r="I28" s="16" t="str" cm="1">
+        <f t="array" ref="I28">IF(AND(H27&gt;100,H28&lt;100),INDEX(M:M,MATCH(I27,M:M,0)+1,0),I27)</f>
+        <v>극</v>
+      </c>
+      <c r="J28" s="16" t="str">
+        <f>VLOOKUP(I28,M:P,4,FALSE)</f>
+        <v>1E+48</v>
+      </c>
+      <c r="K28" s="11">
+        <f>$B$14*E28</f>
+        <v>4000</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="16">
+        <v>84</v>
+      </c>
+      <c r="O28" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="P28" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>2.7788000000000005E+48</v>
-      </c>
-      <c r="H28" s="17">
-        <f t="shared" si="6"/>
-        <v>2.7788000000000004</v>
-      </c>
-      <c r="I28" s="16" t="str" cm="1">
-        <f t="array" ref="I28">IF(AND(H27&gt;100,H28&lt;100),INDEX(N:N,MATCH(I27,N:N,0)+1,0),I27)</f>
-        <v>극</v>
-      </c>
-      <c r="J28" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+48</v>
-      </c>
-      <c r="K28" s="22">
-        <v>3000</v>
-      </c>
-      <c r="L28" s="11">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="16">
-        <v>84</v>
-      </c>
-      <c r="P28" s="17">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E+84</v>
-      </c>
-      <c r="Q28" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+84</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E29" s="16">
         <v>21</v>
       </c>
       <c r="F29" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>141.7188극</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="3"/>
+        <v>1.417188E+50</v>
+      </c>
+      <c r="H29" s="17">
         <f t="shared" si="4"/>
-        <v>141.7188극</v>
-      </c>
-      <c r="G29" s="17">
+        <v>141.71879999999999</v>
+      </c>
+      <c r="I29" s="16" t="str" cm="1">
+        <f t="array" ref="I29">IF(AND(H28&gt;100,H29&lt;100),INDEX(M:M,MATCH(I28,M:M,0)+1,0),I28)</f>
+        <v>극</v>
+      </c>
+      <c r="J29" s="16" t="str">
+        <f>VLOOKUP(I29,M:P,4,FALSE)</f>
+        <v>1E+48</v>
+      </c>
+      <c r="K29" s="11">
+        <f>$B$14*E29</f>
+        <v>4200</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="16">
+        <v>88</v>
+      </c>
+      <c r="O29" s="17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="P29" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>1.417188E+50</v>
-      </c>
-      <c r="H29" s="17">
-        <f t="shared" si="6"/>
-        <v>141.71879999999999</v>
-      </c>
-      <c r="I29" s="16" t="str" cm="1">
-        <f t="array" ref="I29">IF(AND(H28&gt;100,H29&lt;100),INDEX(N:N,MATCH(I28,N:N,0)+1,0),I28)</f>
-        <v>극</v>
-      </c>
-      <c r="J29" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+48</v>
-      </c>
-      <c r="K29" s="22">
-        <v>3500</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" si="1"/>
-        <v>4200</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="16">
-        <v>88</v>
-      </c>
-      <c r="P29" s="17">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999996E+87</v>
-      </c>
-      <c r="Q29" s="17" t="str">
-        <f t="shared" si="7"/>
         <v>1E+88</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E30" s="16">
         <v>22</v>
       </c>
       <c r="F30" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>7227.6588극</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="3"/>
+        <v>7.2276588000000002E+51</v>
+      </c>
+      <c r="H30" s="17">
         <f t="shared" si="4"/>
-        <v>7227.6588극</v>
-      </c>
-      <c r="G30" s="17">
+        <v>7227.6588000000002</v>
+      </c>
+      <c r="I30" s="16" t="str" cm="1">
+        <f t="array" ref="I30">IF(AND(H29&gt;100,H30&lt;100),INDEX(M:M,MATCH(I29,M:M,0)+1,0),I29)</f>
+        <v>극</v>
+      </c>
+      <c r="J30" s="16" t="str">
+        <f>VLOOKUP(I30,M:P,4,FALSE)</f>
+        <v>1E+48</v>
+      </c>
+      <c r="K30" s="11">
+        <f>$B$14*E30</f>
+        <v>4400</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="16">
+        <v>92</v>
+      </c>
+      <c r="O30" s="17">
+        <f t="shared" si="0"/>
+        <v>1E+92</v>
+      </c>
+      <c r="P30" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>7.2276588000000002E+51</v>
-      </c>
-      <c r="H30" s="17">
-        <f t="shared" si="6"/>
-        <v>7227.6588000000002</v>
-      </c>
-      <c r="I30" s="16" t="str" cm="1">
-        <f t="array" ref="I30">IF(AND(H29&gt;100,H30&lt;100),INDEX(N:N,MATCH(I29,N:N,0)+1,0),I29)</f>
-        <v>극</v>
-      </c>
-      <c r="J30" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+48</v>
-      </c>
-      <c r="K30" s="22">
-        <v>4000</v>
-      </c>
-      <c r="L30" s="11">
-        <f t="shared" si="1"/>
-        <v>4400</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="16">
-        <v>92</v>
-      </c>
-      <c r="P30" s="17">
-        <f t="shared" si="2"/>
         <v>1E+92</v>
       </c>
-      <c r="Q30" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>1E+92</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E31" s="16">
         <v>23</v>
       </c>
       <c r="F31" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>36.8611항</v>
+      </c>
+      <c r="G31" s="17">
+        <f t="shared" si="3"/>
+        <v>3.6861099999999998E+53</v>
+      </c>
+      <c r="H31" s="17">
         <f t="shared" si="4"/>
-        <v>36.8611항</v>
-      </c>
-      <c r="G31" s="17">
+        <v>36.8611</v>
+      </c>
+      <c r="I31" s="16" t="str" cm="1">
+        <f t="array" ref="I31">IF(AND(H30&gt;100,H31&lt;100),INDEX(M:M,MATCH(I30,M:M,0)+1,0),I30)</f>
+        <v>항</v>
+      </c>
+      <c r="J31" s="16" t="str">
+        <f>VLOOKUP(I31,M:P,4,FALSE)</f>
+        <v>1E+52</v>
+      </c>
+      <c r="K31" s="11">
+        <f>$B$14*E31</f>
+        <v>4600</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="16">
+        <v>96</v>
+      </c>
+      <c r="O31" s="17">
+        <f t="shared" si="0"/>
+        <v>1E+96</v>
+      </c>
+      <c r="P31" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>3.6861099999999998E+53</v>
-      </c>
-      <c r="H31" s="17">
-        <f t="shared" si="6"/>
-        <v>36.8611</v>
-      </c>
-      <c r="I31" s="16" t="str" cm="1">
-        <f t="array" ref="I31">IF(AND(H30&gt;100,H31&lt;100),INDEX(N:N,MATCH(I30,N:N,0)+1,0),I30)</f>
-        <v>항</v>
-      </c>
-      <c r="J31" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+52</v>
-      </c>
-      <c r="K31" s="22">
-        <v>4500</v>
-      </c>
-      <c r="L31" s="11">
-        <f t="shared" si="1"/>
-        <v>4600</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O31" s="16">
-        <v>96</v>
-      </c>
-      <c r="P31" s="17">
-        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
-      <c r="Q31" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>1E+96</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E32" s="16">
         <v>24</v>
       </c>
       <c r="F32" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>1879.9161항</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="3"/>
+        <v>1.8799161E+55</v>
+      </c>
+      <c r="H32" s="17">
         <f t="shared" si="4"/>
-        <v>1879.9161항</v>
-      </c>
-      <c r="G32" s="17">
+        <v>1879.9160999999999</v>
+      </c>
+      <c r="I32" s="16" t="str" cm="1">
+        <f t="array" ref="I32">IF(AND(H31&gt;100,H32&lt;100),INDEX(M:M,MATCH(I31,M:M,0)+1,0),I31)</f>
+        <v>항</v>
+      </c>
+      <c r="J32" s="16" t="str">
+        <f>VLOOKUP(I32,M:P,4,FALSE)</f>
+        <v>1E+52</v>
+      </c>
+      <c r="K32" s="11">
+        <f>$B$14*E32</f>
+        <v>4800</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="16">
+        <v>100</v>
+      </c>
+      <c r="O32" s="17">
+        <f t="shared" si="0"/>
+        <v>1E+100</v>
+      </c>
+      <c r="P32" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>1.8799161E+55</v>
-      </c>
-      <c r="H32" s="17">
-        <f t="shared" si="6"/>
-        <v>1879.9160999999999</v>
-      </c>
-      <c r="I32" s="16" t="str" cm="1">
-        <f t="array" ref="I32">IF(AND(H31&gt;100,H32&lt;100),INDEX(N:N,MATCH(I31,N:N,0)+1,0),I31)</f>
-        <v>항</v>
-      </c>
-      <c r="J32" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+52</v>
-      </c>
-      <c r="K32" s="22">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="33" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E33" s="16">
+        <v>25</v>
+      </c>
+      <c r="F33" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>9.5876아</v>
+      </c>
+      <c r="G33" s="17">
+        <f t="shared" si="3"/>
+        <v>9.5876000000000011E+56</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="4"/>
+        <v>9.5876000000000001</v>
+      </c>
+      <c r="I33" s="16" t="str" cm="1">
+        <f t="array" ref="I33">IF(AND(H32&gt;100,H33&lt;100),INDEX(M:M,MATCH(I32,M:M,0)+1,0),I32)</f>
+        <v>아</v>
+      </c>
+      <c r="J33" s="16" t="str">
+        <f>VLOOKUP(I33,M:P,4,FALSE)</f>
+        <v>1E+56</v>
+      </c>
+      <c r="K33" s="11">
+        <f>$B$14*E33</f>
         <v>5000</v>
       </c>
-      <c r="L32" s="11">
-        <f t="shared" si="1"/>
-        <v>4800</v>
-      </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O32" s="16">
-        <v>100</v>
-      </c>
-      <c r="P32" s="17">
-        <f t="shared" si="2"/>
-        <v>1E+100</v>
-      </c>
-      <c r="Q32" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="33" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E33" s="16">
-        <v>25</v>
-      </c>
-      <c r="F33" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>9.5876아</v>
-      </c>
-      <c r="G33" s="17">
-        <f t="shared" si="5"/>
-        <v>9.5876000000000011E+56</v>
-      </c>
-      <c r="H33" s="17">
-        <f t="shared" si="6"/>
-        <v>9.5876000000000001</v>
-      </c>
-      <c r="I33" s="16" t="str" cm="1">
-        <f t="array" ref="I33">IF(AND(H32&gt;100,H33&lt;100),INDEX(N:N,MATCH(I32,N:N,0)+1,0),I32)</f>
-        <v>아</v>
-      </c>
-      <c r="J33" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+56</v>
-      </c>
-      <c r="K33" s="22">
-        <v>5500</v>
-      </c>
-      <c r="L33" s="11">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N33" s="16">
+        <v>104</v>
+      </c>
+      <c r="O33" s="17">
+        <f t="shared" ref="O33:O34" si="6">POWER(10,N33)</f>
+        <v>1E+104</v>
+      </c>
+      <c r="P33" s="17" t="str">
+        <f t="shared" ref="P33:P34" si="7">RIGHT(O33,N33)</f>
+        <v>1E+104</v>
+      </c>
+      <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -4531,44 +4545,51 @@
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-    </row>
-    <row r="34" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E34" s="16">
         <v>26</v>
       </c>
       <c r="F34" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>488.9676아</v>
+      </c>
+      <c r="G34" s="17">
+        <f t="shared" si="3"/>
+        <v>4.8896760000000004E+58</v>
+      </c>
+      <c r="H34" s="17">
         <f t="shared" si="4"/>
-        <v>488.9676아</v>
-      </c>
-      <c r="G34" s="17">
-        <f t="shared" si="5"/>
-        <v>4.8896760000000004E+58</v>
-      </c>
-      <c r="H34" s="17">
+        <v>488.9676</v>
+      </c>
+      <c r="I34" s="16" t="str" cm="1">
+        <f t="array" ref="I34">IF(AND(H33&gt;100,H34&lt;100),INDEX(M:M,MATCH(I33,M:M,0)+1,0),I33)</f>
+        <v>아</v>
+      </c>
+      <c r="J34" s="16" t="str">
+        <f>VLOOKUP(I34,M:P,4,FALSE)</f>
+        <v>1E+56</v>
+      </c>
+      <c r="K34" s="11">
+        <f>$B$14*E34</f>
+        <v>5200</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" s="16">
+        <v>108</v>
+      </c>
+      <c r="O34" s="17">
         <f t="shared" si="6"/>
-        <v>488.9676</v>
-      </c>
-      <c r="I34" s="16" t="str" cm="1">
-        <f t="array" ref="I34">IF(AND(H33&gt;100,H34&lt;100),INDEX(N:N,MATCH(I33,N:N,0)+1,0),I33)</f>
-        <v>아</v>
-      </c>
-      <c r="J34" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1E+56</v>
-      </c>
-      <c r="K34" s="22">
-        <v>6000</v>
-      </c>
-      <c r="L34" s="11">
-        <f t="shared" si="1"/>
-        <v>5200</v>
-      </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+        <v>1E+108</v>
+      </c>
+      <c r="P34" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>1E+108</v>
+      </c>
+      <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -4577,44 +4598,41 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-    </row>
-    <row r="35" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E35" s="16">
         <v>27</v>
       </c>
       <c r="F35" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>2.4938나</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="3"/>
+        <v>2.4938000000000001E+60</v>
+      </c>
+      <c r="H35" s="17">
         <f t="shared" si="4"/>
-        <v>2.4938나</v>
-      </c>
-      <c r="G35" s="17">
-        <f t="shared" si="5"/>
-        <v>2.4938000000000001E+60</v>
-      </c>
-      <c r="H35" s="17">
-        <f t="shared" si="6"/>
         <v>2.4938000000000002</v>
       </c>
       <c r="I35" s="16" t="str" cm="1">
-        <f t="array" ref="I35">IF(AND(H34&gt;100,H35&lt;100),INDEX(N:N,MATCH(I34,N:N,0)+1,0),I34)</f>
+        <f t="array" ref="I35">IF(AND(H34&gt;100,H35&lt;100),INDEX(M:M,MATCH(I34,M:M,0)+1,0),I34)</f>
         <v>나</v>
       </c>
       <c r="J35" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I35,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
-      <c r="K35" s="22">
-        <v>6500</v>
-      </c>
-      <c r="L35" s="11">
-        <f t="shared" si="1"/>
+      <c r="K35" s="11">
+        <f>$B$14*E35</f>
         <v>5400</v>
       </c>
+      <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -4623,44 +4641,41 @@
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-    </row>
-    <row r="36" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E36" s="16">
         <v>28</v>
       </c>
       <c r="F36" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>127.1838나</v>
+      </c>
+      <c r="G36" s="17">
+        <f t="shared" si="3"/>
+        <v>1.2718379999999999E+62</v>
+      </c>
+      <c r="H36" s="17">
         <f t="shared" si="4"/>
-        <v>127.1838나</v>
-      </c>
-      <c r="G36" s="17">
-        <f t="shared" si="5"/>
-        <v>1.2718379999999999E+62</v>
-      </c>
-      <c r="H36" s="17">
-        <f t="shared" si="6"/>
         <v>127.18380000000001</v>
       </c>
       <c r="I36" s="16" t="str" cm="1">
-        <f t="array" ref="I36">IF(AND(H35&gt;100,H36&lt;100),INDEX(N:N,MATCH(I35,N:N,0)+1,0),I35)</f>
+        <f t="array" ref="I36">IF(AND(H35&gt;100,H36&lt;100),INDEX(M:M,MATCH(I35,M:M,0)+1,0),I35)</f>
         <v>나</v>
       </c>
       <c r="J36" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I36,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
-      <c r="K36" s="22">
-        <v>7000</v>
-      </c>
-      <c r="L36" s="11">
-        <f t="shared" si="1"/>
+      <c r="K36" s="11">
+        <f>$B$14*E36</f>
         <v>5600</v>
       </c>
+      <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -4669,44 +4684,41 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-    </row>
-    <row r="37" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E37" s="16">
         <v>29</v>
       </c>
       <c r="F37" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>6486.3738나</v>
+      </c>
+      <c r="G37" s="17">
+        <f t="shared" si="3"/>
+        <v>6.4863737999999999E+63</v>
+      </c>
+      <c r="H37" s="17">
         <f t="shared" si="4"/>
-        <v>6486.3738나</v>
-      </c>
-      <c r="G37" s="17">
-        <f t="shared" si="5"/>
-        <v>6.4863737999999999E+63</v>
-      </c>
-      <c r="H37" s="17">
-        <f t="shared" si="6"/>
         <v>6486.3738000000003</v>
       </c>
       <c r="I37" s="16" t="str" cm="1">
-        <f t="array" ref="I37">IF(AND(H36&gt;100,H37&lt;100),INDEX(N:N,MATCH(I36,N:N,0)+1,0),I36)</f>
+        <f t="array" ref="I37">IF(AND(H36&gt;100,H37&lt;100),INDEX(M:M,MATCH(I36,M:M,0)+1,0),I36)</f>
         <v>나</v>
       </c>
       <c r="J37" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I37,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
-      <c r="K37" s="22">
-        <v>7500</v>
-      </c>
-      <c r="L37" s="11">
-        <f t="shared" si="1"/>
+      <c r="K37" s="11">
+        <f>$B$14*E37</f>
         <v>5800</v>
       </c>
+      <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
@@ -4715,44 +4727,41 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-    </row>
-    <row r="38" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E38" s="16">
         <v>30</v>
       </c>
       <c r="F38" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>33.0806불</v>
+      </c>
+      <c r="G38" s="17">
+        <f t="shared" si="3"/>
+        <v>3.3080600000000005E+65</v>
+      </c>
+      <c r="H38" s="17">
         <f t="shared" si="4"/>
-        <v>33.0806불</v>
-      </c>
-      <c r="G38" s="17">
-        <f t="shared" si="5"/>
-        <v>3.3080600000000005E+65</v>
-      </c>
-      <c r="H38" s="17">
-        <f t="shared" si="6"/>
         <v>33.080600000000004</v>
       </c>
       <c r="I38" s="16" t="str" cm="1">
-        <f t="array" ref="I38">IF(AND(H37&gt;100,H38&lt;100),INDEX(N:N,MATCH(I37,N:N,0)+1,0),I37)</f>
+        <f t="array" ref="I38">IF(AND(H37&gt;100,H38&lt;100),INDEX(M:M,MATCH(I37,M:M,0)+1,0),I37)</f>
         <v>불</v>
       </c>
       <c r="J38" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I38,M:P,4,FALSE)</f>
         <v>1E+64</v>
       </c>
-      <c r="K38" s="22">
-        <v>8000</v>
-      </c>
-      <c r="L38" s="11">
-        <f t="shared" si="1"/>
+      <c r="K38" s="11">
+        <f>$B$14*E38</f>
         <v>6000</v>
       </c>
+      <c r="L38" s="13"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
@@ -4761,44 +4770,41 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-    </row>
-    <row r="39" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E39" s="16">
         <v>31</v>
       </c>
       <c r="F39" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>1687.1106불</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="3"/>
+        <v>1.6871106000000001E+67</v>
+      </c>
+      <c r="H39" s="17">
         <f t="shared" si="4"/>
-        <v>1687.1106불</v>
-      </c>
-      <c r="G39" s="17">
-        <f t="shared" si="5"/>
-        <v>1.6871106000000001E+67</v>
-      </c>
-      <c r="H39" s="17">
-        <f t="shared" si="6"/>
         <v>1687.1106</v>
       </c>
       <c r="I39" s="16" t="str" cm="1">
-        <f t="array" ref="I39">IF(AND(H38&gt;100,H39&lt;100),INDEX(N:N,MATCH(I38,N:N,0)+1,0),I38)</f>
+        <f t="array" ref="I39">IF(AND(H38&gt;100,H39&lt;100),INDEX(M:M,MATCH(I38,M:M,0)+1,0),I38)</f>
         <v>불</v>
       </c>
       <c r="J39" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I39,M:P,4,FALSE)</f>
         <v>1E+64</v>
       </c>
-      <c r="K39" s="22">
-        <v>9000</v>
-      </c>
-      <c r="L39" s="11">
-        <f t="shared" si="1"/>
+      <c r="K39" s="11">
+        <f>$B$14*E39</f>
         <v>6200</v>
       </c>
+      <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
@@ -4807,39 +4813,36 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-    </row>
-    <row r="40" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E40" s="16">
         <v>32</v>
       </c>
       <c r="F40" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>8.6043무</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" si="3"/>
+        <v>8.6043000000000003E+68</v>
+      </c>
+      <c r="H40" s="17">
         <f t="shared" si="4"/>
-        <v>8.6043무</v>
-      </c>
-      <c r="G40" s="17">
-        <f t="shared" si="5"/>
-        <v>8.6043000000000003E+68</v>
-      </c>
-      <c r="H40" s="17">
-        <f t="shared" si="6"/>
         <v>8.6043000000000003</v>
       </c>
       <c r="I40" s="16" t="str" cm="1">
-        <f t="array" ref="I40">IF(AND(H39&gt;100,H40&lt;100),INDEX(N:N,MATCH(I39,N:N,0)+1,0),I39)</f>
+        <f t="array" ref="I40">IF(AND(H39&gt;100,H40&lt;100),INDEX(M:M,MATCH(I39,M:M,0)+1,0),I39)</f>
         <v>무</v>
       </c>
       <c r="J40" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I40,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
-      <c r="K40" s="22">
-        <v>10000</v>
-      </c>
-      <c r="L40" s="11">
-        <f t="shared" si="1"/>
+      <c r="K40" s="11">
+        <f>$B$14*E40</f>
         <v>6400</v>
       </c>
+      <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
@@ -4850,39 +4853,36 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-    </row>
-    <row r="41" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E41" s="16">
         <v>33</v>
       </c>
       <c r="F41" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>438.8193무</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="3"/>
+        <v>4.3881929999999998E+70</v>
+      </c>
+      <c r="H41" s="17">
         <f t="shared" si="4"/>
-        <v>438.8193무</v>
-      </c>
-      <c r="G41" s="17">
-        <f t="shared" si="5"/>
-        <v>4.3881929999999998E+70</v>
-      </c>
-      <c r="H41" s="17">
-        <f t="shared" si="6"/>
         <v>438.8193</v>
       </c>
       <c r="I41" s="16" t="str" cm="1">
-        <f t="array" ref="I41">IF(AND(H40&gt;100,H41&lt;100),INDEX(N:N,MATCH(I40,N:N,0)+1,0),I40)</f>
+        <f t="array" ref="I41">IF(AND(H40&gt;100,H41&lt;100),INDEX(M:M,MATCH(I40,M:M,0)+1,0),I40)</f>
         <v>무</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I41,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
-      <c r="K41" s="22">
-        <v>11000</v>
-      </c>
-      <c r="L41" s="11">
-        <f t="shared" si="1"/>
+      <c r="K41" s="11">
+        <f>$B$14*E41</f>
         <v>6600</v>
       </c>
+      <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
@@ -4893,39 +4893,36 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-    </row>
-    <row r="42" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E42" s="16">
         <v>34</v>
       </c>
       <c r="F42" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>2.238대</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="3"/>
+        <v>2.238E+72</v>
+      </c>
+      <c r="H42" s="17">
         <f t="shared" si="4"/>
-        <v>2.238대</v>
-      </c>
-      <c r="G42" s="17">
-        <f t="shared" si="5"/>
-        <v>2.238E+72</v>
-      </c>
-      <c r="H42" s="17">
-        <f t="shared" si="6"/>
         <v>2.238</v>
       </c>
       <c r="I42" s="16" t="str" cm="1">
-        <f t="array" ref="I42">IF(AND(H41&gt;100,H42&lt;100),INDEX(N:N,MATCH(I41,N:N,0)+1,0),I41)</f>
+        <f t="array" ref="I42">IF(AND(H41&gt;100,H42&lt;100),INDEX(M:M,MATCH(I41,M:M,0)+1,0),I41)</f>
         <v>대</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I42,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
-      <c r="K42" s="22">
-        <v>12000</v>
-      </c>
-      <c r="L42" s="11">
-        <f t="shared" si="1"/>
+      <c r="K42" s="11">
+        <f>$B$14*E42</f>
         <v>6800</v>
       </c>
+      <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
@@ -4936,39 +4933,36 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-    </row>
-    <row r="43" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E43" s="16">
         <v>35</v>
       </c>
       <c r="F43" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>114.138대</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="3"/>
+        <v>1.14138E+74</v>
+      </c>
+      <c r="H43" s="17">
         <f t="shared" si="4"/>
-        <v>114.138대</v>
-      </c>
-      <c r="G43" s="17">
-        <f t="shared" si="5"/>
-        <v>1.14138E+74</v>
-      </c>
-      <c r="H43" s="17">
-        <f t="shared" si="6"/>
         <v>114.13800000000001</v>
       </c>
       <c r="I43" s="16" t="str" cm="1">
-        <f t="array" ref="I43">IF(AND(H42&gt;100,H43&lt;100),INDEX(N:N,MATCH(I42,N:N,0)+1,0),I42)</f>
+        <f t="array" ref="I43">IF(AND(H42&gt;100,H43&lt;100),INDEX(M:M,MATCH(I42,M:M,0)+1,0),I42)</f>
         <v>대</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I43,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
-      <c r="K43" s="22">
-        <v>13000</v>
-      </c>
-      <c r="L43" s="11">
-        <f t="shared" si="1"/>
+      <c r="K43" s="11">
+        <f>$B$14*E43</f>
         <v>7000</v>
       </c>
+      <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
@@ -4979,39 +4973,36 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-    </row>
-    <row r="44" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E44" s="16">
         <v>36</v>
       </c>
       <c r="F44" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>5821.038대</v>
+      </c>
+      <c r="G44" s="17">
+        <f t="shared" si="3"/>
+        <v>5.8210379999999993E+75</v>
+      </c>
+      <c r="H44" s="17">
         <f t="shared" si="4"/>
-        <v>5821.038대</v>
-      </c>
-      <c r="G44" s="17">
-        <f t="shared" si="5"/>
-        <v>5.8210379999999993E+75</v>
-      </c>
-      <c r="H44" s="17">
-        <f t="shared" si="6"/>
         <v>5821.0379999999996</v>
       </c>
       <c r="I44" s="16" t="str" cm="1">
-        <f t="array" ref="I44">IF(AND(H43&gt;100,H44&lt;100),INDEX(N:N,MATCH(I43,N:N,0)+1,0),I43)</f>
+        <f t="array" ref="I44">IF(AND(H43&gt;100,H44&lt;100),INDEX(M:M,MATCH(I43,M:M,0)+1,0),I43)</f>
         <v>대</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I44,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
-      <c r="K44" s="22">
-        <v>14000</v>
-      </c>
-      <c r="L44" s="11">
-        <f t="shared" si="1"/>
+      <c r="K44" s="11">
+        <f>$B$14*E44</f>
         <v>7200</v>
       </c>
+      <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
@@ -5022,39 +5013,36 @@
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-    </row>
-    <row r="45" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E45" s="16">
         <v>37</v>
       </c>
       <c r="F45" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>29.6873겁</v>
+      </c>
+      <c r="G45" s="17">
+        <f t="shared" si="3"/>
+        <v>2.96873E+77</v>
+      </c>
+      <c r="H45" s="17">
         <f t="shared" si="4"/>
-        <v>29.6873겁</v>
-      </c>
-      <c r="G45" s="17">
-        <f t="shared" si="5"/>
-        <v>2.96873E+77</v>
-      </c>
-      <c r="H45" s="17">
-        <f t="shared" si="6"/>
         <v>29.6873</v>
       </c>
       <c r="I45" s="16" t="str" cm="1">
-        <f t="array" ref="I45">IF(AND(H44&gt;100,H45&lt;100),INDEX(N:N,MATCH(I44,N:N,0)+1,0),I44)</f>
+        <f t="array" ref="I45">IF(AND(H44&gt;100,H45&lt;100),INDEX(M:M,MATCH(I44,M:M,0)+1,0),I44)</f>
         <v>겁</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I45,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
-      <c r="K45" s="22">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="11">
-        <f t="shared" si="1"/>
+      <c r="K45" s="11">
+        <f>$B$14*E45</f>
         <v>7400</v>
       </c>
+      <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
@@ -5065,39 +5053,36 @@
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-    </row>
-    <row r="46" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E46" s="16">
         <v>38</v>
       </c>
       <c r="F46" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>1514.0523겁</v>
+      </c>
+      <c r="G46" s="17">
+        <f t="shared" si="3"/>
+        <v>1.5140523000000002E+79</v>
+      </c>
+      <c r="H46" s="17">
         <f t="shared" si="4"/>
-        <v>1514.0523겁</v>
-      </c>
-      <c r="G46" s="17">
-        <f t="shared" si="5"/>
-        <v>1.5140523000000002E+79</v>
-      </c>
-      <c r="H46" s="17">
-        <f t="shared" si="6"/>
         <v>1514.0523000000001</v>
       </c>
       <c r="I46" s="16" t="str" cm="1">
-        <f t="array" ref="I46">IF(AND(H45&gt;100,H46&lt;100),INDEX(N:N,MATCH(I45,N:N,0)+1,0),I45)</f>
+        <f t="array" ref="I46">IF(AND(H45&gt;100,H46&lt;100),INDEX(M:M,MATCH(I45,M:M,0)+1,0),I45)</f>
         <v>겁</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I46,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
-      <c r="K46" s="22">
-        <v>16000</v>
-      </c>
-      <c r="L46" s="11">
-        <f t="shared" si="1"/>
+      <c r="K46" s="11">
+        <f>$B$14*E46</f>
         <v>7600</v>
       </c>
+      <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
@@ -5108,39 +5093,36 @@
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-    </row>
-    <row r="47" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E47" s="16">
         <v>39</v>
       </c>
       <c r="F47" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>7.7217업</v>
+      </c>
+      <c r="G47" s="17">
+        <f t="shared" si="3"/>
+        <v>7.7216999999999992E+80</v>
+      </c>
+      <c r="H47" s="17">
         <f t="shared" si="4"/>
-        <v>7.7217업</v>
-      </c>
-      <c r="G47" s="17">
-        <f t="shared" si="5"/>
-        <v>7.7216999999999992E+80</v>
-      </c>
-      <c r="H47" s="17">
-        <f t="shared" si="6"/>
         <v>7.7216999999999993</v>
       </c>
       <c r="I47" s="16" t="str" cm="1">
-        <f t="array" ref="I47">IF(AND(H46&gt;100,H47&lt;100),INDEX(N:N,MATCH(I46,N:N,0)+1,0),I46)</f>
+        <f t="array" ref="I47">IF(AND(H46&gt;100,H47&lt;100),INDEX(M:M,MATCH(I46,M:M,0)+1,0),I46)</f>
         <v>업</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I47,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
-      <c r="K47" s="22">
-        <v>17000</v>
-      </c>
-      <c r="L47" s="11">
-        <f t="shared" si="1"/>
+      <c r="K47" s="11">
+        <f>$B$14*E47</f>
         <v>7800</v>
       </c>
+      <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
@@ -5151,39 +5133,36 @@
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-    </row>
-    <row r="48" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E48" s="16">
         <v>40</v>
       </c>
       <c r="F48" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>393.8067업</v>
+      </c>
+      <c r="G48" s="17">
+        <f t="shared" si="3"/>
+        <v>3.9380669999999996E+82</v>
+      </c>
+      <c r="H48" s="17">
         <f t="shared" si="4"/>
-        <v>393.8067업</v>
-      </c>
-      <c r="G48" s="17">
-        <f t="shared" si="5"/>
-        <v>3.9380669999999996E+82</v>
-      </c>
-      <c r="H48" s="17">
-        <f t="shared" si="6"/>
         <v>393.80669999999998</v>
       </c>
       <c r="I48" s="16" t="str" cm="1">
-        <f t="array" ref="I48">IF(AND(H47&gt;100,H48&lt;100),INDEX(N:N,MATCH(I47,N:N,0)+1,0),I47)</f>
+        <f t="array" ref="I48">IF(AND(H47&gt;100,H48&lt;100),INDEX(M:M,MATCH(I47,M:M,0)+1,0),I47)</f>
         <v>업</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I48,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
-      <c r="K48" s="22">
-        <v>18000</v>
-      </c>
-      <c r="L48" s="11">
-        <f t="shared" si="1"/>
+      <c r="K48" s="11">
+        <f>$B$14*E48</f>
         <v>8000</v>
       </c>
+      <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
@@ -5194,39 +5173,36 @@
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-    </row>
-    <row r="49" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E49" s="16">
         <v>41</v>
       </c>
       <c r="F49" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>2.0085긍</v>
+      </c>
+      <c r="G49" s="17">
+        <f t="shared" si="3"/>
+        <v>2.0085000000000001E+84</v>
+      </c>
+      <c r="H49" s="17">
         <f t="shared" si="4"/>
-        <v>2.0085긍</v>
-      </c>
-      <c r="G49" s="17">
-        <f t="shared" si="5"/>
-        <v>2.0085000000000001E+84</v>
-      </c>
-      <c r="H49" s="17">
-        <f t="shared" si="6"/>
         <v>2.0085000000000002</v>
       </c>
       <c r="I49" s="16" t="str" cm="1">
-        <f t="array" ref="I49">IF(AND(H48&gt;100,H49&lt;100),INDEX(N:N,MATCH(I48,N:N,0)+1,0),I48)</f>
+        <f t="array" ref="I49">IF(AND(H48&gt;100,H49&lt;100),INDEX(M:M,MATCH(I48,M:M,0)+1,0),I48)</f>
         <v>긍</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I49,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
-      <c r="K49" s="22">
-        <v>20000</v>
-      </c>
-      <c r="L49" s="11">
-        <f t="shared" si="1"/>
+      <c r="K49" s="11">
+        <f>$B$14*E49</f>
         <v>8200</v>
       </c>
+      <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -5237,39 +5213,36 @@
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-    </row>
-    <row r="50" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E50" s="16">
         <v>42</v>
       </c>
       <c r="F50" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>102.4335긍</v>
+      </c>
+      <c r="G50" s="17">
+        <f t="shared" si="3"/>
+        <v>1.024335E+86</v>
+      </c>
+      <c r="H50" s="17">
         <f t="shared" si="4"/>
-        <v>102.4335긍</v>
-      </c>
-      <c r="G50" s="17">
-        <f t="shared" si="5"/>
-        <v>1.024335E+86</v>
-      </c>
-      <c r="H50" s="17">
-        <f t="shared" si="6"/>
         <v>102.4335</v>
       </c>
       <c r="I50" s="16" t="str" cm="1">
-        <f t="array" ref="I50">IF(AND(H49&gt;100,H50&lt;100),INDEX(N:N,MATCH(I49,N:N,0)+1,0),I49)</f>
+        <f t="array" ref="I50">IF(AND(H49&gt;100,H50&lt;100),INDEX(M:M,MATCH(I49,M:M,0)+1,0),I49)</f>
         <v>긍</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I50,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
-      <c r="K50" s="22">
-        <v>22000</v>
-      </c>
-      <c r="L50" s="11">
-        <f t="shared" si="1"/>
+      <c r="K50" s="11">
+        <f>$B$14*E50</f>
         <v>8400</v>
       </c>
+      <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -5280,39 +5253,36 @@
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-    </row>
-    <row r="51" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E51" s="16">
         <v>43</v>
       </c>
       <c r="F51" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>5224.1085긍</v>
+      </c>
+      <c r="G51" s="17">
+        <f t="shared" si="3"/>
+        <v>5.2241085000000002E+87</v>
+      </c>
+      <c r="H51" s="17">
         <f t="shared" si="4"/>
-        <v>5224.1085긍</v>
-      </c>
-      <c r="G51" s="17">
-        <f t="shared" si="5"/>
-        <v>5.2241085000000002E+87</v>
-      </c>
-      <c r="H51" s="17">
-        <f t="shared" si="6"/>
         <v>5224.1085000000003</v>
       </c>
       <c r="I51" s="16" t="str" cm="1">
-        <f t="array" ref="I51">IF(AND(H50&gt;100,H51&lt;100),INDEX(N:N,MATCH(I50,N:N,0)+1,0),I50)</f>
+        <f t="array" ref="I51">IF(AND(H50&gt;100,H51&lt;100),INDEX(M:M,MATCH(I50,M:M,0)+1,0),I50)</f>
         <v>긍</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I51,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
-      <c r="K51" s="22">
-        <v>24000</v>
-      </c>
-      <c r="L51" s="11">
-        <f t="shared" si="1"/>
+      <c r="K51" s="11">
+        <f>$B$14*E51</f>
         <v>8600</v>
       </c>
+      <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -5323,39 +5293,36 @@
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-    </row>
-    <row r="52" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E52" s="16">
         <v>44</v>
       </c>
       <c r="F52" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>26.643갈</v>
+      </c>
+      <c r="G52" s="17">
+        <f t="shared" si="3"/>
+        <v>2.6643000000000001E+89</v>
+      </c>
+      <c r="H52" s="17">
         <f t="shared" si="4"/>
-        <v>26.643갈</v>
-      </c>
-      <c r="G52" s="17">
-        <f t="shared" si="5"/>
-        <v>2.6643000000000001E+89</v>
-      </c>
-      <c r="H52" s="17">
-        <f t="shared" si="6"/>
         <v>26.643000000000001</v>
       </c>
       <c r="I52" s="16" t="str" cm="1">
-        <f t="array" ref="I52">IF(AND(H51&gt;100,H52&lt;100),INDEX(N:N,MATCH(I51,N:N,0)+1,0),I51)</f>
+        <f t="array" ref="I52">IF(AND(H51&gt;100,H52&lt;100),INDEX(M:M,MATCH(I51,M:M,0)+1,0),I51)</f>
         <v>갈</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I52,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
-      <c r="K52" s="22">
-        <v>26000</v>
-      </c>
-      <c r="L52" s="11">
-        <f t="shared" si="1"/>
+      <c r="K52" s="11">
+        <f>$B$14*E52</f>
         <v>8800</v>
       </c>
+      <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
@@ -5366,39 +5333,36 @@
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-    </row>
-    <row r="53" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E53" s="16">
         <v>45</v>
       </c>
       <c r="F53" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>1358.793갈</v>
+      </c>
+      <c r="G53" s="17">
+        <f t="shared" si="3"/>
+        <v>1.3587929999999998E+91</v>
+      </c>
+      <c r="H53" s="17">
         <f t="shared" si="4"/>
-        <v>1358.793갈</v>
-      </c>
-      <c r="G53" s="17">
-        <f t="shared" si="5"/>
-        <v>1.3587929999999998E+91</v>
-      </c>
-      <c r="H53" s="17">
-        <f t="shared" si="6"/>
         <v>1358.7929999999999</v>
       </c>
       <c r="I53" s="16" t="str" cm="1">
-        <f t="array" ref="I53">IF(AND(H52&gt;100,H53&lt;100),INDEX(N:N,MATCH(I52,N:N,0)+1,0),I52)</f>
+        <f t="array" ref="I53">IF(AND(H52&gt;100,H53&lt;100),INDEX(M:M,MATCH(I52,M:M,0)+1,0),I52)</f>
         <v>갈</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I53,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
-      <c r="K53" s="22">
-        <v>28000</v>
-      </c>
-      <c r="L53" s="11">
-        <f t="shared" si="1"/>
+      <c r="K53" s="11">
+        <f>$B$14*E53</f>
         <v>9000</v>
       </c>
+      <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
@@ -5409,39 +5373,36 @@
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-    </row>
-    <row r="54" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E54" s="16">
         <v>46</v>
       </c>
       <c r="F54" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>6.9299라</v>
+      </c>
+      <c r="G54" s="17">
+        <f t="shared" si="3"/>
+        <v>6.9298999999999998E+92</v>
+      </c>
+      <c r="H54" s="17">
         <f t="shared" si="4"/>
-        <v>6.9299라</v>
-      </c>
-      <c r="G54" s="17">
-        <f t="shared" si="5"/>
-        <v>6.9298999999999998E+92</v>
-      </c>
-      <c r="H54" s="17">
-        <f t="shared" si="6"/>
         <v>6.9298999999999999</v>
       </c>
       <c r="I54" s="16" t="str" cm="1">
-        <f t="array" ref="I54">IF(AND(H53&gt;100,H54&lt;100),INDEX(N:N,MATCH(I53,N:N,0)+1,0),I53)</f>
+        <f t="array" ref="I54">IF(AND(H53&gt;100,H54&lt;100),INDEX(M:M,MATCH(I53,M:M,0)+1,0),I53)</f>
         <v>라</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I54,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
-      <c r="K54" s="22">
-        <v>30000</v>
-      </c>
-      <c r="L54" s="11">
-        <f t="shared" si="1"/>
+      <c r="K54" s="11">
+        <f>$B$14*E54</f>
         <v>9200</v>
       </c>
+      <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
@@ -5452,39 +5413,36 @@
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-    </row>
-    <row r="55" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E55" s="16">
         <v>47</v>
       </c>
       <c r="F55" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>353.4249라</v>
+      </c>
+      <c r="G55" s="17">
+        <f t="shared" si="3"/>
+        <v>3.5342489999999998E+94</v>
+      </c>
+      <c r="H55" s="17">
         <f t="shared" si="4"/>
-        <v>353.4249라</v>
-      </c>
-      <c r="G55" s="17">
-        <f t="shared" si="5"/>
-        <v>3.5342489999999998E+94</v>
-      </c>
-      <c r="H55" s="17">
-        <f t="shared" si="6"/>
         <v>353.42489999999998</v>
       </c>
       <c r="I55" s="16" t="str" cm="1">
-        <f t="array" ref="I55">IF(AND(H54&gt;100,H55&lt;100),INDEX(N:N,MATCH(I54,N:N,0)+1,0),I54)</f>
+        <f t="array" ref="I55">IF(AND(H54&gt;100,H55&lt;100),INDEX(M:M,MATCH(I54,M:M,0)+1,0),I54)</f>
         <v>라</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I55,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
-      <c r="K55" s="22">
-        <v>32000</v>
-      </c>
-      <c r="L55" s="11">
-        <f t="shared" si="1"/>
+      <c r="K55" s="11">
+        <f>$B$14*E55</f>
         <v>9400</v>
       </c>
+      <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -5495,39 +5453,36 @@
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-    </row>
-    <row r="56" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E56" s="16">
         <v>48</v>
       </c>
       <c r="F56" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>1.8025가</v>
+      </c>
+      <c r="G56" s="17">
+        <f t="shared" si="3"/>
+        <v>1.8025000000000002E+96</v>
+      </c>
+      <c r="H56" s="17">
         <f t="shared" si="4"/>
-        <v>1.8025가</v>
-      </c>
-      <c r="G56" s="17">
-        <f t="shared" si="5"/>
-        <v>1.8025000000000002E+96</v>
-      </c>
-      <c r="H56" s="17">
-        <f t="shared" si="6"/>
         <v>1.8025</v>
       </c>
       <c r="I56" s="16" t="str" cm="1">
-        <f t="array" ref="I56">IF(AND(H55&gt;100,H56&lt;100),INDEX(N:N,MATCH(I55,N:N,0)+1,0),I55)</f>
+        <f t="array" ref="I56">IF(AND(H55&gt;100,H56&lt;100),INDEX(M:M,MATCH(I55,M:M,0)+1,0),I55)</f>
         <v>가</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I56,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
-      <c r="K56" s="22">
-        <v>34000</v>
-      </c>
-      <c r="L56" s="11">
-        <f t="shared" si="1"/>
+      <c r="K56" s="11">
+        <f>$B$14*E56</f>
         <v>9600</v>
       </c>
+      <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -5538,39 +5493,36 @@
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-    </row>
-    <row r="57" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E57" s="16">
         <v>49</v>
       </c>
       <c r="F57" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>91.9275가</v>
+      </c>
+      <c r="G57" s="17">
+        <f t="shared" si="3"/>
+        <v>9.1927499999999992E+97</v>
+      </c>
+      <c r="H57" s="17">
         <f t="shared" si="4"/>
-        <v>91.9275가</v>
-      </c>
-      <c r="G57" s="17">
-        <f t="shared" si="5"/>
-        <v>9.1927499999999992E+97</v>
-      </c>
-      <c r="H57" s="17">
-        <f t="shared" si="6"/>
         <v>91.927499999999995</v>
       </c>
       <c r="I57" s="16" t="str" cm="1">
-        <f t="array" ref="I57">IF(AND(H56&gt;100,H57&lt;100),INDEX(N:N,MATCH(I56,N:N,0)+1,0),I56)</f>
+        <f t="array" ref="I57">IF(AND(H56&gt;100,H57&lt;100),INDEX(M:M,MATCH(I56,M:M,0)+1,0),I56)</f>
         <v>가</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I57,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
-      <c r="K57" s="22">
-        <v>36000</v>
-      </c>
-      <c r="L57" s="11">
-        <f t="shared" si="1"/>
+      <c r="K57" s="11">
+        <f>$B$14*E57</f>
         <v>9800</v>
       </c>
+      <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
@@ -5581,39 +5533,36 @@
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-    </row>
-    <row r="58" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E58" s="16">
         <v>50</v>
       </c>
       <c r="F58" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>4688.3025가</v>
+      </c>
+      <c r="G58" s="17">
+        <f t="shared" si="3"/>
+        <v>4.6883025000000003E+99</v>
+      </c>
+      <c r="H58" s="17">
         <f t="shared" si="4"/>
-        <v>4688.3025가</v>
-      </c>
-      <c r="G58" s="17">
-        <f t="shared" si="5"/>
-        <v>4.6883025000000003E+99</v>
-      </c>
-      <c r="H58" s="17">
-        <f t="shared" si="6"/>
         <v>4688.3024999999998</v>
       </c>
       <c r="I58" s="16" t="str" cm="1">
-        <f t="array" ref="I58">IF(AND(H57&gt;100,H58&lt;100),INDEX(N:N,MATCH(I57,N:N,0)+1,0),I57)</f>
+        <f t="array" ref="I58">IF(AND(H57&gt;100,H58&lt;100),INDEX(M:M,MATCH(I57,M:M,0)+1,0),I57)</f>
         <v>가</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I58,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
-      <c r="K58" s="22">
-        <v>38000</v>
-      </c>
-      <c r="L58" s="11">
-        <f t="shared" si="1"/>
+      <c r="K58" s="11">
+        <f>$B$14*E58</f>
         <v>10000</v>
       </c>
+      <c r="O58" s="11"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
@@ -5624,39 +5573,36 @@
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-    </row>
-    <row r="59" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E59" s="16">
         <v>51</v>
       </c>
       <c r="F59" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>23.9104언</v>
+      </c>
+      <c r="G59" s="17">
+        <f t="shared" si="3"/>
+        <v>2.3910399999999999E+101</v>
+      </c>
+      <c r="H59" s="17">
         <f t="shared" si="4"/>
-        <v>23.9104언</v>
-      </c>
-      <c r="G59" s="17">
-        <f t="shared" si="5"/>
-        <v>2.3910399999999999E+101</v>
-      </c>
-      <c r="H59" s="17">
-        <f t="shared" si="6"/>
         <v>23.910399999999999</v>
       </c>
       <c r="I59" s="16" t="str" cm="1">
-        <f t="array" ref="I59">IF(AND(H58&gt;100,H59&lt;100),INDEX(N:N,MATCH(I58,N:N,0)+1,0),I58)</f>
+        <f t="array" ref="I59">IF(AND(H58&gt;100,H59&lt;100),INDEX(M:M,MATCH(I58,M:M,0)+1,0),I58)</f>
         <v>언</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I59,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
-      <c r="K59" s="22">
-        <v>43000</v>
-      </c>
-      <c r="L59" s="11">
-        <f t="shared" si="1"/>
+      <c r="K59" s="11">
+        <f>$B$14*E59</f>
         <v>10200</v>
       </c>
+      <c r="O59" s="11"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
@@ -5667,39 +5613,36 @@
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-    </row>
-    <row r="60" spans="5:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E60" s="16">
         <v>52</v>
       </c>
       <c r="F60" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>1219.4304언</v>
+      </c>
+      <c r="G60" s="17">
+        <f t="shared" si="3"/>
+        <v>1.2194304E+103</v>
+      </c>
+      <c r="H60" s="17">
         <f t="shared" si="4"/>
-        <v>1219.4304언</v>
-      </c>
-      <c r="G60" s="17">
-        <f t="shared" si="5"/>
-        <v>1.2194304E+103</v>
-      </c>
-      <c r="H60" s="17">
-        <f t="shared" si="6"/>
         <v>1219.4304</v>
       </c>
       <c r="I60" s="16" t="str" cm="1">
-        <f t="array" ref="I60">IF(AND(H59&gt;100,H60&lt;100),INDEX(N:N,MATCH(I59,N:N,0)+1,0),I59)</f>
+        <f t="array" ref="I60">IF(AND(H59&gt;100,H60&lt;100),INDEX(M:M,MATCH(I59,M:M,0)+1,0),I59)</f>
         <v>언</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I60,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
-      <c r="K60" s="22">
-        <v>48000</v>
-      </c>
-      <c r="L60" s="11">
-        <f t="shared" si="1"/>
+      <c r="K60" s="11">
+        <f>$B$14*E60</f>
         <v>10400</v>
       </c>
+      <c r="O60" s="11"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
@@ -5710,15 +5653,96 @@
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-    </row>
-    <row r="61" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
+    </row>
+    <row r="61" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E61" s="16">
+        <v>53</v>
+      </c>
+      <c r="F61" s="17" t="str">
+        <f t="shared" ref="F61:F62" si="8">H61&amp;I61</f>
+        <v>6.2191승</v>
+      </c>
+      <c r="G61" s="17">
+        <f t="shared" ref="G61:G62" si="9">H61*J61</f>
+        <v>6.2191000000000005E+104</v>
+      </c>
+      <c r="H61" s="17">
+        <f t="shared" si="4"/>
+        <v>6.2191000000000001</v>
+      </c>
+      <c r="I61" s="16" t="str" cm="1">
+        <f t="array" ref="I61">IF(AND(H60&gt;100,H61&lt;100),INDEX(M:M,MATCH(I60,M:M,0)+1,0),I60)</f>
+        <v>승</v>
+      </c>
+      <c r="J61" s="16" t="str">
+        <f>VLOOKUP(I61,M:P,4,FALSE)</f>
+        <v>1E+104</v>
+      </c>
+      <c r="K61" s="11">
+        <f>$B$14*E61</f>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="62" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E62" s="16">
+        <v>54</v>
+      </c>
+      <c r="F62" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v>317.1741승</v>
+      </c>
+      <c r="G62" s="17">
+        <f t="shared" si="9"/>
+        <v>3.1717410000000003E+106</v>
+      </c>
+      <c r="H62" s="17">
+        <f t="shared" si="4"/>
+        <v>317.17410000000001</v>
+      </c>
+      <c r="I62" s="16" t="str" cm="1">
+        <f t="array" ref="I62">IF(AND(H61&gt;100,H62&lt;100),INDEX(M:M,MATCH(I61,M:M,0)+1,0),I61)</f>
+        <v>승</v>
+      </c>
+      <c r="J62" s="16" t="str">
+        <f>VLOOKUP(I62,M:P,4,FALSE)</f>
+        <v>1E+104</v>
+      </c>
+      <c r="K62" s="11">
+        <f>$B$14*E62</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="63" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+    </row>
+    <row r="64" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5752,14 +5776,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="9" t="s">
@@ -5770,10 +5794,10 @@
       <c r="B6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>1560</v>
       </c>
     </row>
@@ -5804,24 +5828,24 @@
       <c r="B8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>10000</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <f>C8*7</f>
         <v>70000</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <f>SUM(D8:D11)</f>
         <v>341000</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>100</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>2000</v>
       </c>
     </row>
@@ -5829,21 +5853,21 @@
       <c r="B9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>23000</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <f t="shared" ref="D9:D10" si="0">C9*7</f>
         <v>161000</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
       <c r="G9" s="16">
         <v>2</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>200</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>4000</v>
       </c>
     </row>
@@ -5851,21 +5875,21 @@
       <c r="B10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>10000</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
       <c r="G10" s="16">
         <v>3</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>300</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>6000</v>
       </c>
     </row>
@@ -5873,32 +5897,32 @@
       <c r="B11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
         <v>40000</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
       <c r="G11" s="16">
         <v>4</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>400</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>8000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E12" s="23"/>
+      <c r="E12" s="22"/>
       <c r="G12" s="16">
         <v>5</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>500</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>10000</v>
       </c>
     </row>
@@ -5906,10 +5930,10 @@
       <c r="G13" s="16">
         <v>6</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>600</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>13000</v>
       </c>
     </row>
@@ -5917,10 +5941,10 @@
       <c r="G14" s="16">
         <v>7</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>700</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>16000</v>
       </c>
     </row>
@@ -5931,10 +5955,10 @@
       <c r="G15" s="16">
         <v>8</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>800</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>19000</v>
       </c>
     </row>
@@ -5954,10 +5978,10 @@
       <c r="G16" s="16">
         <v>9</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>900</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>22000</v>
       </c>
     </row>
@@ -5968,20 +5992,20 @@
       <c r="C17" s="9">
         <v>40</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>15</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <f>($E$8/D17)*C17</f>
         <v>909333.33333333326</v>
       </c>
       <c r="G17" s="16">
         <v>10</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>1000</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>25000</v>
       </c>
     </row>
@@ -5992,20 +6016,20 @@
       <c r="C18" s="9">
         <v>3</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>15</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <f t="shared" ref="E18:E20" si="1">($E$8/D18)*C18</f>
         <v>68200</v>
       </c>
       <c r="G18" s="16">
         <v>11</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>1100</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>28000</v>
       </c>
     </row>
@@ -6016,7 +6040,7 @@
       <c r="C19" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>15</v>
       </c>
       <c r="E19" s="9">
@@ -6026,10 +6050,10 @@
       <c r="G19" s="16">
         <v>12</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>1200</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>31000</v>
       </c>
     </row>
@@ -6040,7 +6064,7 @@
       <c r="C20" s="9">
         <v>1E-4</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>15</v>
       </c>
       <c r="E20" s="9">
@@ -6050,10 +6074,10 @@
       <c r="G20" s="16">
         <v>13</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>1300</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>34000</v>
       </c>
     </row>
@@ -6061,10 +6085,10 @@
       <c r="G21" s="16">
         <v>14</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>1400</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>37000</v>
       </c>
     </row>
@@ -6072,37 +6096,37 @@
       <c r="G22" s="16">
         <v>15</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1500</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>40000</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G27" s="16"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G28" s="16"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G29" s="16"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G30" s="16"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G31" s="16"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
@@ -6167,8 +6191,8 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80BFA27-1036-4391-BE8D-632B30E871DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2D86F-6C3E-4160-9B37-EC2F48E76705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3268,9 +3268,173 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>25</v>
+      </c>
+      <c r="D56">
+        <v>56000</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>3.1717410000000003E+106</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>12200</v>
+      </c>
+      <c r="K56">
+        <v>25</v>
+      </c>
+      <c r="L56">
+        <v>11000</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>9021</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1.6176E+108</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>12200</v>
+      </c>
+      <c r="K57">
+        <v>25</v>
+      </c>
+      <c r="L57">
+        <v>11200</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>58000</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>8.2497600000000012E+109</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>12200</v>
+      </c>
+      <c r="K58">
+        <v>25</v>
+      </c>
+      <c r="L58">
+        <v>11400</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>60000</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>4.2073776E+111</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>12200</v>
+      </c>
+      <c r="K59">
+        <v>25</v>
+      </c>
+      <c r="L59">
+        <v>11600</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J32 K2:K53 G33:J53 G54:K55 M2:M55 A33:C55 E33:E55">
+  <conditionalFormatting sqref="A2:J32 K2:K53 G33:J53 E33:E59 A33:C59 M2:M59 G54:K59">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3282,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3444,11 +3608,11 @@
         <v>29</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f>VLOOKUP(I9,M:P,4,FALSE)</f>
+        <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="K9" s="11">
-        <f>$B$14*E9</f>
+        <f t="shared" ref="K9:K40" si="1">$B$14*E9</f>
         <v>200</v>
       </c>
       <c r="M9" s="16" t="s">
@@ -3458,11 +3622,11 @@
         <v>8</v>
       </c>
       <c r="O9" s="17">
-        <f t="shared" ref="O9:O32" si="0">POWER(10,N9)</f>
+        <f t="shared" ref="O9:O32" si="2">POWER(10,N9)</f>
         <v>100000000</v>
       </c>
       <c r="P9" s="17" t="str">
-        <f t="shared" ref="P9:P11" si="1">1&amp;RIGHT(O9,N9)</f>
+        <f t="shared" ref="P9:P11" si="3">1&amp;RIGHT(O9,N9)</f>
         <v>100000000</v>
       </c>
     </row>
@@ -3478,11 +3642,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="17" t="str">
-        <f t="shared" ref="F10:F60" si="2">H10&amp;I10</f>
+        <f t="shared" ref="F10:F60" si="4">H10&amp;I10</f>
         <v>51경</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" ref="G10:G60" si="3">H10*J10</f>
+        <f t="shared" ref="G10:G60" si="5">H10*J10</f>
         <v>5.1E+17</v>
       </c>
       <c r="H10" s="17">
@@ -3494,11 +3658,11 @@
         <v>경</v>
       </c>
       <c r="J10" s="16" t="str">
-        <f>VLOOKUP(I10,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>10000000000000000</v>
       </c>
       <c r="K10" s="11">
-        <f>$B$14*E10</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="M10" s="16" t="s">
@@ -3508,11 +3672,11 @@
         <v>12</v>
       </c>
       <c r="O10" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
       <c r="P10" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000000000000</v>
       </c>
     </row>
@@ -3522,15 +3686,15 @@
         <v>3</v>
       </c>
       <c r="F11" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2601경</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H62" si="4">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H74" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -3538,11 +3702,11 @@
         <v>경</v>
       </c>
       <c r="J11" s="16" t="str">
-        <f>VLOOKUP(I11,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>10000000000000000</v>
       </c>
       <c r="K11" s="11">
-        <f>$B$14*E11</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="M11" s="16" t="s">
@@ -3552,11 +3716,11 @@
         <v>16</v>
       </c>
       <c r="O11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+16</v>
       </c>
       <c r="P11" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10000000000000000</v>
       </c>
     </row>
@@ -3570,15 +3734,15 @@
         <v>4</v>
       </c>
       <c r="F12" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.2651해</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3265100000000001E+21</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13.2651</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -3586,11 +3750,11 @@
         <v>해</v>
       </c>
       <c r="J12" s="16" t="str">
-        <f>VLOOKUP(I12,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+20</v>
       </c>
       <c r="K12" s="11">
-        <f>$B$14*E12</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -3600,11 +3764,11 @@
         <v>20</v>
       </c>
       <c r="O12" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="P12" s="17" t="str">
-        <f t="shared" ref="P12:P32" si="5">RIGHT(O12,N12)</f>
+        <f t="shared" ref="P12:P32" si="7">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -3620,15 +3784,15 @@
         <v>5</v>
       </c>
       <c r="F13" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>676.5201해</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7652009999999995E+22</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>676.52009999999996</v>
       </c>
       <c r="I13" s="16" t="str" cm="1">
@@ -3636,11 +3800,11 @@
         <v>해</v>
       </c>
       <c r="J13" s="16" t="str">
-        <f>VLOOKUP(I13,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+20</v>
       </c>
       <c r="K13" s="11">
-        <f>$B$14*E13</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="M13" s="16" t="s">
@@ -3650,11 +3814,11 @@
         <v>24</v>
       </c>
       <c r="O13" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="P13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -3670,15 +3834,15 @@
         <v>6</v>
       </c>
       <c r="F14" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4503자</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.4503000000000005E+24</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4503000000000004</v>
       </c>
       <c r="I14" s="16" t="str" cm="1">
@@ -3686,11 +3850,11 @@
         <v>자</v>
       </c>
       <c r="J14" s="16" t="str">
-        <f>VLOOKUP(I14,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+24</v>
       </c>
       <c r="K14" s="11">
-        <f>$B$14*E14</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="M14" s="16" t="s">
@@ -3700,11 +3864,11 @@
         <v>28</v>
       </c>
       <c r="O14" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="P14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -3714,15 +3878,15 @@
         <v>7</v>
       </c>
       <c r="F15" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>175.9653자</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7596529999999999E+26</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>175.96530000000001</v>
       </c>
       <c r="I15" s="16" t="str" cm="1">
@@ -3730,11 +3894,11 @@
         <v>자</v>
       </c>
       <c r="J15" s="16" t="str">
-        <f>VLOOKUP(I15,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+24</v>
       </c>
       <c r="K15" s="11">
-        <f>$B$14*E15</f>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
       <c r="M15" s="16" t="s">
@@ -3744,11 +3908,11 @@
         <v>32</v>
       </c>
       <c r="O15" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="P15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -3760,15 +3924,15 @@
         <v>8</v>
       </c>
       <c r="F16" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8974.2303자</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.9742302999999997E+27</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8974.2302999999993</v>
       </c>
       <c r="I16" s="16" t="str" cm="1">
@@ -3776,11 +3940,11 @@
         <v>자</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f>VLOOKUP(I16,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+24</v>
       </c>
       <c r="K16" s="11">
-        <f>$B$14*E16</f>
+        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
       <c r="M16" s="16" t="s">
@@ -3790,11 +3954,11 @@
         <v>36</v>
       </c>
       <c r="O16" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="P16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -3804,15 +3968,15 @@
         <v>9</v>
       </c>
       <c r="F17" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.7686양</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5768600000000005E+29</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45.768600000000006</v>
       </c>
       <c r="I17" s="16" t="str" cm="1">
@@ -3820,11 +3984,11 @@
         <v>양</v>
       </c>
       <c r="J17" s="16" t="str">
-        <f>VLOOKUP(I17,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+28</v>
       </c>
       <c r="K17" s="11">
-        <f>$B$14*E17</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="M17" s="16" t="s">
@@ -3834,11 +3998,11 @@
         <v>40</v>
       </c>
       <c r="O17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="P17" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -3848,15 +4012,15 @@
         <v>10</v>
       </c>
       <c r="F18" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2334.1986양</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3341986000000001E+31</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2334.1986000000002</v>
       </c>
       <c r="I18" s="16" t="str" cm="1">
@@ -3864,11 +4028,11 @@
         <v>양</v>
       </c>
       <c r="J18" s="16" t="str">
-        <f>VLOOKUP(I18,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+28</v>
       </c>
       <c r="K18" s="11">
-        <f>$B$14*E18</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="M18" s="16" t="s">
@@ -3878,11 +4042,11 @@
         <v>44</v>
       </c>
       <c r="O18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="P18" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -3892,15 +4056,15 @@
         <v>11</v>
       </c>
       <c r="F19" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.9045구</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1904500000000001E+33</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.904500000000001</v>
       </c>
       <c r="I19" s="16" t="str" cm="1">
@@ -3908,11 +4072,11 @@
         <v>구</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f>VLOOKUP(I19,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+32</v>
       </c>
       <c r="K19" s="11">
-        <f>$B$14*E19</f>
+        <f t="shared" si="1"/>
         <v>2200</v>
       </c>
       <c r="M19" s="16" t="s">
@@ -3922,11 +4086,11 @@
         <v>48</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+48</v>
       </c>
       <c r="P19" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -3936,15 +4100,15 @@
         <v>12</v>
       </c>
       <c r="F20" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>607.1295구</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.0712950000000003E+34</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>607.12950000000001</v>
       </c>
       <c r="I20" s="16" t="str" cm="1">
@@ -3952,11 +4116,11 @@
         <v>구</v>
       </c>
       <c r="J20" s="16" t="str">
-        <f>VLOOKUP(I20,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+32</v>
       </c>
       <c r="K20" s="11">
-        <f>$B$14*E20</f>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="M20" s="16" t="s">
@@ -3966,11 +4130,11 @@
         <v>52</v>
       </c>
       <c r="O20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="P20" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -3980,15 +4144,15 @@
         <v>13</v>
       </c>
       <c r="F21" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0964간</v>
       </c>
       <c r="G21" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0963999999999999E+36</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0964</v>
       </c>
       <c r="I21" s="16" t="str" cm="1">
@@ -3996,11 +4160,11 @@
         <v>간</v>
       </c>
       <c r="J21" s="16" t="str">
-        <f>VLOOKUP(I21,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="K21" s="11">
-        <f>$B$14*E21</f>
+        <f t="shared" si="1"/>
         <v>2600</v>
       </c>
       <c r="M21" s="16" t="s">
@@ -4010,11 +4174,11 @@
         <v>56</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="P21" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -4024,15 +4188,15 @@
         <v>14</v>
       </c>
       <c r="F22" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>157.9164간</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5791640000000002E+38</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>157.91640000000001</v>
       </c>
       <c r="I22" s="16" t="str" cm="1">
@@ -4040,11 +4204,11 @@
         <v>간</v>
       </c>
       <c r="J22" s="16" t="str">
-        <f>VLOOKUP(I22,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="K22" s="11">
-        <f>$B$14*E22</f>
+        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
       <c r="M22" s="16" t="s">
@@ -4054,11 +4218,11 @@
         <v>60</v>
       </c>
       <c r="O22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="P22" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -4067,15 +4231,15 @@
         <v>15</v>
       </c>
       <c r="F23" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8053.7364간</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.0537364000000001E+39</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8053.7363999999998</v>
       </c>
       <c r="I23" s="16" t="str" cm="1">
@@ -4083,11 +4247,11 @@
         <v>간</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f>VLOOKUP(I23,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="K23" s="11">
-        <f>$B$14*E23</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="M23" s="16" t="s">
@@ -4097,11 +4261,11 @@
         <v>64</v>
       </c>
       <c r="O23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+64</v>
       </c>
       <c r="P23" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -4110,15 +4274,15 @@
         <v>16</v>
       </c>
       <c r="F24" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.0741정</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1074099999999999E+41</v>
       </c>
       <c r="H24" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>41.074100000000001</v>
       </c>
       <c r="I24" s="16" t="str" cm="1">
@@ -4126,11 +4290,11 @@
         <v>정</v>
       </c>
       <c r="J24" s="16" t="str">
-        <f>VLOOKUP(I24,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+40</v>
       </c>
       <c r="K24" s="11">
-        <f>$B$14*E24</f>
+        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
       <c r="M24" s="16" t="s">
@@ -4140,11 +4304,11 @@
         <v>68</v>
       </c>
       <c r="O24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="P24" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -4153,15 +4317,15 @@
         <v>17</v>
       </c>
       <c r="F25" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2094.7791정</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0947791000000003E+43</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2094.7791000000002</v>
       </c>
       <c r="I25" s="16" t="str" cm="1">
@@ -4169,11 +4333,11 @@
         <v>정</v>
       </c>
       <c r="J25" s="16" t="str">
-        <f>VLOOKUP(I25,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+40</v>
       </c>
       <c r="K25" s="11">
-        <f>$B$14*E25</f>
+        <f t="shared" si="1"/>
         <v>3400</v>
       </c>
       <c r="M25" s="16" t="s">
@@ -4183,11 +4347,11 @@
         <v>72</v>
       </c>
       <c r="O25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="P25" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -4196,15 +4360,15 @@
         <v>18</v>
       </c>
       <c r="F26" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.6834재</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.06834E+45</v>
       </c>
       <c r="H26" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.683399999999999</v>
       </c>
       <c r="I26" s="16" t="str" cm="1">
@@ -4212,11 +4376,11 @@
         <v>재</v>
       </c>
       <c r="J26" s="16" t="str">
-        <f>VLOOKUP(I26,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+44</v>
       </c>
       <c r="K26" s="11">
-        <f>$B$14*E26</f>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="M26" s="16" t="s">
@@ -4226,11 +4390,11 @@
         <v>76</v>
       </c>
       <c r="O26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+76</v>
       </c>
       <c r="P26" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -4239,15 +4403,15 @@
         <v>19</v>
       </c>
       <c r="F27" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>544.8534재</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.4485340000000006E+46</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>544.85339999999997</v>
       </c>
       <c r="I27" s="16" t="str" cm="1">
@@ -4255,11 +4419,11 @@
         <v>재</v>
       </c>
       <c r="J27" s="16" t="str">
-        <f>VLOOKUP(I27,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+44</v>
       </c>
       <c r="K27" s="11">
-        <f>$B$14*E27</f>
+        <f t="shared" si="1"/>
         <v>3800</v>
       </c>
       <c r="M27" s="16" t="s">
@@ -4269,11 +4433,11 @@
         <v>80</v>
       </c>
       <c r="O27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+80</v>
       </c>
       <c r="P27" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -4282,15 +4446,15 @@
         <v>20</v>
       </c>
       <c r="F28" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7788극</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7788000000000005E+48</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7788000000000004</v>
       </c>
       <c r="I28" s="16" t="str" cm="1">
@@ -4298,11 +4462,11 @@
         <v>극</v>
       </c>
       <c r="J28" s="16" t="str">
-        <f>VLOOKUP(I28,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="K28" s="11">
-        <f>$B$14*E28</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="M28" s="16" t="s">
@@ -4312,11 +4476,11 @@
         <v>84</v>
       </c>
       <c r="O28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="P28" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -4325,15 +4489,15 @@
         <v>21</v>
       </c>
       <c r="F29" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>141.7188극</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.417188E+50</v>
       </c>
       <c r="H29" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>141.71879999999999</v>
       </c>
       <c r="I29" s="16" t="str" cm="1">
@@ -4341,11 +4505,11 @@
         <v>극</v>
       </c>
       <c r="J29" s="16" t="str">
-        <f>VLOOKUP(I29,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="K29" s="11">
-        <f>$B$14*E29</f>
+        <f t="shared" si="1"/>
         <v>4200</v>
       </c>
       <c r="M29" s="16" t="s">
@@ -4355,11 +4519,11 @@
         <v>88</v>
       </c>
       <c r="O29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="P29" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -4368,15 +4532,15 @@
         <v>22</v>
       </c>
       <c r="F30" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7227.6588극</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.2276588000000002E+51</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7227.6588000000002</v>
       </c>
       <c r="I30" s="16" t="str" cm="1">
@@ -4384,11 +4548,11 @@
         <v>극</v>
       </c>
       <c r="J30" s="16" t="str">
-        <f>VLOOKUP(I30,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="K30" s="11">
-        <f>$B$14*E30</f>
+        <f t="shared" si="1"/>
         <v>4400</v>
       </c>
       <c r="M30" s="16" t="s">
@@ -4398,11 +4562,11 @@
         <v>92</v>
       </c>
       <c r="O30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+92</v>
       </c>
       <c r="P30" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -4411,15 +4575,15 @@
         <v>23</v>
       </c>
       <c r="F31" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36.8611항</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6861099999999998E+53</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36.8611</v>
       </c>
       <c r="I31" s="16" t="str" cm="1">
@@ -4427,11 +4591,11 @@
         <v>항</v>
       </c>
       <c r="J31" s="16" t="str">
-        <f>VLOOKUP(I31,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+52</v>
       </c>
       <c r="K31" s="11">
-        <f>$B$14*E31</f>
+        <f t="shared" si="1"/>
         <v>4600</v>
       </c>
       <c r="M31" s="16" t="s">
@@ -4441,11 +4605,11 @@
         <v>96</v>
       </c>
       <c r="O31" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P31" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -4454,15 +4618,15 @@
         <v>24</v>
       </c>
       <c r="F32" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1879.9161항</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8799161E+55</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1879.9160999999999</v>
       </c>
       <c r="I32" s="16" t="str" cm="1">
@@ -4470,11 +4634,11 @@
         <v>항</v>
       </c>
       <c r="J32" s="16" t="str">
-        <f>VLOOKUP(I32,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+52</v>
       </c>
       <c r="K32" s="11">
-        <f>$B$14*E32</f>
+        <f t="shared" si="1"/>
         <v>4800</v>
       </c>
       <c r="L32" s="16"/>
@@ -4485,11 +4649,11 @@
         <v>100</v>
       </c>
       <c r="O32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="P32" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -4498,15 +4662,15 @@
         <v>25</v>
       </c>
       <c r="F33" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.5876아</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.5876000000000011E+56</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.5876000000000001</v>
       </c>
       <c r="I33" s="16" t="str" cm="1">
@@ -4514,11 +4678,11 @@
         <v>아</v>
       </c>
       <c r="J33" s="16" t="str">
-        <f>VLOOKUP(I33,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+56</v>
       </c>
       <c r="K33" s="11">
-        <f>$B$14*E33</f>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="L33" s="13"/>
@@ -4529,11 +4693,11 @@
         <v>104</v>
       </c>
       <c r="O33" s="17">
-        <f t="shared" ref="O33:O34" si="6">POWER(10,N33)</f>
+        <f t="shared" ref="O33:O34" si="8">POWER(10,N33)</f>
         <v>1E+104</v>
       </c>
       <c r="P33" s="17" t="str">
-        <f t="shared" ref="P33:P34" si="7">RIGHT(O33,N33)</f>
+        <f t="shared" ref="P33:P34" si="9">RIGHT(O33,N33)</f>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="11"/>
@@ -4551,15 +4715,15 @@
         <v>26</v>
       </c>
       <c r="F34" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>488.9676아</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.8896760000000004E+58</v>
       </c>
       <c r="H34" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>488.9676</v>
       </c>
       <c r="I34" s="16" t="str" cm="1">
@@ -4567,11 +4731,11 @@
         <v>아</v>
       </c>
       <c r="J34" s="16" t="str">
-        <f>VLOOKUP(I34,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+56</v>
       </c>
       <c r="K34" s="11">
-        <f>$B$14*E34</f>
+        <f t="shared" si="1"/>
         <v>5200</v>
       </c>
       <c r="L34" s="13"/>
@@ -4582,11 +4746,11 @@
         <v>108</v>
       </c>
       <c r="O34" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1E+108</v>
       </c>
       <c r="P34" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="11"/>
@@ -4604,15 +4768,15 @@
         <v>27</v>
       </c>
       <c r="F35" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4938나</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4938000000000001E+60</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4938000000000002</v>
       </c>
       <c r="I35" s="16" t="str" cm="1">
@@ -4620,11 +4784,11 @@
         <v>나</v>
       </c>
       <c r="J35" s="16" t="str">
-        <f>VLOOKUP(I35,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+60</v>
       </c>
       <c r="K35" s="11">
-        <f>$B$14*E35</f>
+        <f t="shared" si="1"/>
         <v>5400</v>
       </c>
       <c r="L35" s="13"/>
@@ -4647,15 +4811,15 @@
         <v>28</v>
       </c>
       <c r="F36" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>127.1838나</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2718379999999999E+62</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>127.18380000000001</v>
       </c>
       <c r="I36" s="16" t="str" cm="1">
@@ -4663,11 +4827,11 @@
         <v>나</v>
       </c>
       <c r="J36" s="16" t="str">
-        <f>VLOOKUP(I36,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+60</v>
       </c>
       <c r="K36" s="11">
-        <f>$B$14*E36</f>
+        <f t="shared" si="1"/>
         <v>5600</v>
       </c>
       <c r="L36" s="13"/>
@@ -4690,15 +4854,15 @@
         <v>29</v>
       </c>
       <c r="F37" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6486.3738나</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.4863737999999999E+63</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6486.3738000000003</v>
       </c>
       <c r="I37" s="16" t="str" cm="1">
@@ -4706,11 +4870,11 @@
         <v>나</v>
       </c>
       <c r="J37" s="16" t="str">
-        <f>VLOOKUP(I37,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+60</v>
       </c>
       <c r="K37" s="11">
-        <f>$B$14*E37</f>
+        <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="L37" s="13"/>
@@ -4733,15 +4897,15 @@
         <v>30</v>
       </c>
       <c r="F38" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33.0806불</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.3080600000000005E+65</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33.080600000000004</v>
       </c>
       <c r="I38" s="16" t="str" cm="1">
@@ -4749,11 +4913,11 @@
         <v>불</v>
       </c>
       <c r="J38" s="16" t="str">
-        <f>VLOOKUP(I38,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+64</v>
       </c>
       <c r="K38" s="11">
-        <f>$B$14*E38</f>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="L38" s="13"/>
@@ -4776,15 +4940,15 @@
         <v>31</v>
       </c>
       <c r="F39" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1687.1106불</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6871106000000001E+67</v>
       </c>
       <c r="H39" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1687.1106</v>
       </c>
       <c r="I39" s="16" t="str" cm="1">
@@ -4792,11 +4956,11 @@
         <v>불</v>
       </c>
       <c r="J39" s="16" t="str">
-        <f>VLOOKUP(I39,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+64</v>
       </c>
       <c r="K39" s="11">
-        <f>$B$14*E39</f>
+        <f t="shared" si="1"/>
         <v>6200</v>
       </c>
       <c r="L39" s="13"/>
@@ -4819,15 +4983,15 @@
         <v>32</v>
       </c>
       <c r="F40" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.6043무</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.6043000000000003E+68</v>
       </c>
       <c r="H40" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.6043000000000003</v>
       </c>
       <c r="I40" s="16" t="str" cm="1">
@@ -4835,11 +4999,11 @@
         <v>무</v>
       </c>
       <c r="J40" s="16" t="str">
-        <f>VLOOKUP(I40,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+68</v>
       </c>
       <c r="K40" s="11">
-        <f>$B$14*E40</f>
+        <f t="shared" si="1"/>
         <v>6400</v>
       </c>
       <c r="O40" s="11"/>
@@ -4859,15 +5023,15 @@
         <v>33</v>
       </c>
       <c r="F41" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>438.8193무</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.3881929999999998E+70</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>438.8193</v>
       </c>
       <c r="I41" s="16" t="str" cm="1">
@@ -4875,11 +5039,11 @@
         <v>무</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f>VLOOKUP(I41,M:P,4,FALSE)</f>
+        <f t="shared" ref="J41:J72" si="10">VLOOKUP(I41,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K41" s="11">
-        <f>$B$14*E41</f>
+        <f t="shared" ref="K41:K62" si="11">$B$14*E41</f>
         <v>6600</v>
       </c>
       <c r="O41" s="11"/>
@@ -4899,15 +5063,15 @@
         <v>34</v>
       </c>
       <c r="F42" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.238대</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.238E+72</v>
       </c>
       <c r="H42" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.238</v>
       </c>
       <c r="I42" s="16" t="str" cm="1">
@@ -4915,11 +5079,11 @@
         <v>대</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f>VLOOKUP(I42,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+72</v>
       </c>
       <c r="K42" s="11">
-        <f>$B$14*E42</f>
+        <f t="shared" si="11"/>
         <v>6800</v>
       </c>
       <c r="O42" s="11"/>
@@ -4939,15 +5103,15 @@
         <v>35</v>
       </c>
       <c r="F43" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>114.138대</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.14138E+74</v>
       </c>
       <c r="H43" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>114.13800000000001</v>
       </c>
       <c r="I43" s="16" t="str" cm="1">
@@ -4955,11 +5119,11 @@
         <v>대</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f>VLOOKUP(I43,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+72</v>
       </c>
       <c r="K43" s="11">
-        <f>$B$14*E43</f>
+        <f t="shared" si="11"/>
         <v>7000</v>
       </c>
       <c r="O43" s="11"/>
@@ -4979,15 +5143,15 @@
         <v>36</v>
       </c>
       <c r="F44" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5821.038대</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.8210379999999993E+75</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5821.0379999999996</v>
       </c>
       <c r="I44" s="16" t="str" cm="1">
@@ -4995,11 +5159,11 @@
         <v>대</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f>VLOOKUP(I44,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+72</v>
       </c>
       <c r="K44" s="11">
-        <f>$B$14*E44</f>
+        <f t="shared" si="11"/>
         <v>7200</v>
       </c>
       <c r="O44" s="11"/>
@@ -5019,15 +5183,15 @@
         <v>37</v>
       </c>
       <c r="F45" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29.6873겁</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.96873E+77</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29.6873</v>
       </c>
       <c r="I45" s="16" t="str" cm="1">
@@ -5035,11 +5199,11 @@
         <v>겁</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f>VLOOKUP(I45,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+76</v>
       </c>
       <c r="K45" s="11">
-        <f>$B$14*E45</f>
+        <f t="shared" si="11"/>
         <v>7400</v>
       </c>
       <c r="O45" s="11"/>
@@ -5059,15 +5223,15 @@
         <v>38</v>
       </c>
       <c r="F46" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1514.0523겁</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5140523000000002E+79</v>
       </c>
       <c r="H46" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1514.0523000000001</v>
       </c>
       <c r="I46" s="16" t="str" cm="1">
@@ -5075,11 +5239,11 @@
         <v>겁</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f>VLOOKUP(I46,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+76</v>
       </c>
       <c r="K46" s="11">
-        <f>$B$14*E46</f>
+        <f t="shared" si="11"/>
         <v>7600</v>
       </c>
       <c r="O46" s="11"/>
@@ -5099,15 +5263,15 @@
         <v>39</v>
       </c>
       <c r="F47" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.7217업</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.7216999999999992E+80</v>
       </c>
       <c r="H47" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.7216999999999993</v>
       </c>
       <c r="I47" s="16" t="str" cm="1">
@@ -5115,11 +5279,11 @@
         <v>업</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f>VLOOKUP(I47,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+80</v>
       </c>
       <c r="K47" s="11">
-        <f>$B$14*E47</f>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="O47" s="11"/>
@@ -5139,15 +5303,15 @@
         <v>40</v>
       </c>
       <c r="F48" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>393.8067업</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9380669999999996E+82</v>
       </c>
       <c r="H48" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>393.80669999999998</v>
       </c>
       <c r="I48" s="16" t="str" cm="1">
@@ -5155,11 +5319,11 @@
         <v>업</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f>VLOOKUP(I48,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+80</v>
       </c>
       <c r="K48" s="11">
-        <f>$B$14*E48</f>
+        <f t="shared" si="11"/>
         <v>8000</v>
       </c>
       <c r="O48" s="11"/>
@@ -5179,15 +5343,15 @@
         <v>41</v>
       </c>
       <c r="F49" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0085긍</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0085000000000001E+84</v>
       </c>
       <c r="H49" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0085000000000002</v>
       </c>
       <c r="I49" s="16" t="str" cm="1">
@@ -5195,11 +5359,11 @@
         <v>긍</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f>VLOOKUP(I49,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+84</v>
       </c>
       <c r="K49" s="11">
-        <f>$B$14*E49</f>
+        <f t="shared" si="11"/>
         <v>8200</v>
       </c>
       <c r="O49" s="11"/>
@@ -5219,15 +5383,15 @@
         <v>42</v>
       </c>
       <c r="F50" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>102.4335긍</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.024335E+86</v>
       </c>
       <c r="H50" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>102.4335</v>
       </c>
       <c r="I50" s="16" t="str" cm="1">
@@ -5235,11 +5399,11 @@
         <v>긍</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f>VLOOKUP(I50,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+84</v>
       </c>
       <c r="K50" s="11">
-        <f>$B$14*E50</f>
+        <f t="shared" si="11"/>
         <v>8400</v>
       </c>
       <c r="O50" s="11"/>
@@ -5259,15 +5423,15 @@
         <v>43</v>
       </c>
       <c r="F51" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5224.1085긍</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.2241085000000002E+87</v>
       </c>
       <c r="H51" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5224.1085000000003</v>
       </c>
       <c r="I51" s="16" t="str" cm="1">
@@ -5275,11 +5439,11 @@
         <v>긍</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f>VLOOKUP(I51,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+84</v>
       </c>
       <c r="K51" s="11">
-        <f>$B$14*E51</f>
+        <f t="shared" si="11"/>
         <v>8600</v>
       </c>
       <c r="O51" s="11"/>
@@ -5299,15 +5463,15 @@
         <v>44</v>
       </c>
       <c r="F52" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26.643갈</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.6643000000000001E+89</v>
       </c>
       <c r="H52" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26.643000000000001</v>
       </c>
       <c r="I52" s="16" t="str" cm="1">
@@ -5315,11 +5479,11 @@
         <v>갈</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f>VLOOKUP(I52,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+88</v>
       </c>
       <c r="K52" s="11">
-        <f>$B$14*E52</f>
+        <f t="shared" si="11"/>
         <v>8800</v>
       </c>
       <c r="O52" s="11"/>
@@ -5339,15 +5503,15 @@
         <v>45</v>
       </c>
       <c r="F53" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1358.793갈</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3587929999999998E+91</v>
       </c>
       <c r="H53" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1358.7929999999999</v>
       </c>
       <c r="I53" s="16" t="str" cm="1">
@@ -5355,11 +5519,11 @@
         <v>갈</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f>VLOOKUP(I53,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+88</v>
       </c>
       <c r="K53" s="11">
-        <f>$B$14*E53</f>
+        <f t="shared" si="11"/>
         <v>9000</v>
       </c>
       <c r="O53" s="11"/>
@@ -5379,15 +5543,15 @@
         <v>46</v>
       </c>
       <c r="F54" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.9299라</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.9298999999999998E+92</v>
       </c>
       <c r="H54" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.9298999999999999</v>
       </c>
       <c r="I54" s="16" t="str" cm="1">
@@ -5395,11 +5559,11 @@
         <v>라</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f>VLOOKUP(I54,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+92</v>
       </c>
       <c r="K54" s="11">
-        <f>$B$14*E54</f>
+        <f t="shared" si="11"/>
         <v>9200</v>
       </c>
       <c r="O54" s="11"/>
@@ -5419,15 +5583,15 @@
         <v>47</v>
       </c>
       <c r="F55" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>353.4249라</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5342489999999998E+94</v>
       </c>
       <c r="H55" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>353.42489999999998</v>
       </c>
       <c r="I55" s="16" t="str" cm="1">
@@ -5435,11 +5599,11 @@
         <v>라</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f>VLOOKUP(I55,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+92</v>
       </c>
       <c r="K55" s="11">
-        <f>$B$14*E55</f>
+        <f t="shared" si="11"/>
         <v>9400</v>
       </c>
       <c r="O55" s="11"/>
@@ -5459,15 +5623,15 @@
         <v>48</v>
       </c>
       <c r="F56" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8025가</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8025000000000002E+96</v>
       </c>
       <c r="H56" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8025</v>
       </c>
       <c r="I56" s="16" t="str" cm="1">
@@ -5475,11 +5639,11 @@
         <v>가</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f>VLOOKUP(I56,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+96</v>
       </c>
       <c r="K56" s="11">
-        <f>$B$14*E56</f>
+        <f t="shared" si="11"/>
         <v>9600</v>
       </c>
       <c r="O56" s="11"/>
@@ -5499,15 +5663,15 @@
         <v>49</v>
       </c>
       <c r="F57" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91.9275가</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.1927499999999992E+97</v>
       </c>
       <c r="H57" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>91.927499999999995</v>
       </c>
       <c r="I57" s="16" t="str" cm="1">
@@ -5515,11 +5679,11 @@
         <v>가</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f>VLOOKUP(I57,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+96</v>
       </c>
       <c r="K57" s="11">
-        <f>$B$14*E57</f>
+        <f t="shared" si="11"/>
         <v>9800</v>
       </c>
       <c r="O57" s="11"/>
@@ -5539,15 +5703,15 @@
         <v>50</v>
       </c>
       <c r="F58" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4688.3025가</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.6883025000000003E+99</v>
       </c>
       <c r="H58" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4688.3024999999998</v>
       </c>
       <c r="I58" s="16" t="str" cm="1">
@@ -5555,11 +5719,11 @@
         <v>가</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f>VLOOKUP(I58,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+96</v>
       </c>
       <c r="K58" s="11">
-        <f>$B$14*E58</f>
+        <f t="shared" si="11"/>
         <v>10000</v>
       </c>
       <c r="O58" s="11"/>
@@ -5579,15 +5743,15 @@
         <v>51</v>
       </c>
       <c r="F59" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23.9104언</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3910399999999999E+101</v>
       </c>
       <c r="H59" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.910399999999999</v>
       </c>
       <c r="I59" s="16" t="str" cm="1">
@@ -5595,11 +5759,11 @@
         <v>언</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f>VLOOKUP(I59,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+100</v>
       </c>
       <c r="K59" s="11">
-        <f>$B$14*E59</f>
+        <f t="shared" si="11"/>
         <v>10200</v>
       </c>
       <c r="O59" s="11"/>
@@ -5619,15 +5783,15 @@
         <v>52</v>
       </c>
       <c r="F60" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1219.4304언</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2194304E+103</v>
       </c>
       <c r="H60" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1219.4304</v>
       </c>
       <c r="I60" s="16" t="str" cm="1">
@@ -5635,11 +5799,11 @@
         <v>언</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f>VLOOKUP(I60,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+100</v>
       </c>
       <c r="K60" s="11">
-        <f>$B$14*E60</f>
+        <f t="shared" si="11"/>
         <v>10400</v>
       </c>
       <c r="O60" s="11"/>
@@ -5659,15 +5823,15 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="8">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="12">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="9">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="13">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.2191000000000001</v>
       </c>
       <c r="I61" s="16" t="str" cm="1">
@@ -5675,11 +5839,11 @@
         <v>승</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f>VLOOKUP(I61,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+104</v>
       </c>
       <c r="K61" s="11">
-        <f>$B$14*E61</f>
+        <f t="shared" si="11"/>
         <v>10600</v>
       </c>
     </row>
@@ -5688,15 +5852,15 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>317.17410000000001</v>
       </c>
       <c r="I62" s="16" t="str" cm="1">
@@ -5704,45 +5868,172 @@
         <v>승</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f>VLOOKUP(I62,M:P,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1E+104</v>
       </c>
       <c r="K62" s="11">
-        <f>$B$14*E62</f>
+        <f t="shared" si="11"/>
         <v>10800</v>
       </c>
     </row>
     <row r="63" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E63" s="16"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
+      <c r="E63" s="16">
+        <v>55</v>
+      </c>
+      <c r="F63" s="17" t="str">
+        <f t="shared" ref="F63:F74" si="14">H63&amp;I63</f>
+        <v>1.6176마</v>
+      </c>
+      <c r="G63" s="17">
+        <f t="shared" ref="G63:G74" si="15">H63*J63</f>
+        <v>1.6176E+108</v>
+      </c>
+      <c r="H63" s="17">
+        <f t="shared" si="6"/>
+        <v>1.6175999999999999</v>
+      </c>
+      <c r="I63" s="16" t="str" cm="1">
+        <f t="array" ref="I63">IF(AND(H62&gt;100,H63&lt;100),INDEX(M:M,MATCH(I62,M:M,0)+1,0),I62)</f>
+        <v>마</v>
+      </c>
+      <c r="J63" s="16" t="str">
+        <f t="shared" ref="J63:J74" si="16">VLOOKUP(I63,M:P,4,FALSE)</f>
+        <v>1E+108</v>
+      </c>
+      <c r="K63" s="11">
+        <f t="shared" ref="K63:K74" si="17">$B$14*E63</f>
+        <v>11000</v>
+      </c>
     </row>
     <row r="64" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E64" s="16"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-    </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E65" s="16"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-    </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E64" s="16">
+        <v>56</v>
+      </c>
+      <c r="F64" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v>82.4976마</v>
+      </c>
+      <c r="G64" s="17">
+        <f t="shared" si="15"/>
+        <v>8.2497600000000012E+109</v>
+      </c>
+      <c r="H64" s="17">
+        <f t="shared" si="6"/>
+        <v>82.497600000000006</v>
+      </c>
+      <c r="I64" s="16" t="str" cm="1">
+        <f t="array" ref="I64">IF(AND(H63&gt;100,H64&lt;100),INDEX(M:M,MATCH(I63,M:M,0)+1,0),I63)</f>
+        <v>마</v>
+      </c>
+      <c r="J64" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K64" s="11">
+        <f t="shared" si="17"/>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E65" s="16">
+        <v>57</v>
+      </c>
+      <c r="F65" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v>4207.3776마</v>
+      </c>
+      <c r="G65" s="17">
+        <f t="shared" si="15"/>
+        <v>4.2073776E+111</v>
+      </c>
+      <c r="H65" s="17">
+        <f t="shared" si="6"/>
+        <v>4207.3775999999998</v>
+      </c>
+      <c r="I65" s="16" t="str" cm="1">
+        <f t="array" ref="I65">IF(AND(H64&gt;100,H65&lt;100),INDEX(M:M,MATCH(I64,M:M,0)+1,0),I64)</f>
+        <v>마</v>
+      </c>
+      <c r="J65" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K65" s="11">
+        <f t="shared" si="17"/>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="16"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+    </row>
+    <row r="68" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+    </row>
+    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+    </row>
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+    </row>
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E73" s="16"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+    </row>
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E74" s="16"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2D86F-6C3E-4160-9B37-EC2F48E76705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F55716-7209-4681-BB46-04F7932FB509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,11 +1004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1062,6 +1074,7 @@
         <v>10</v>
       </c>
       <c r="C2">
+        <f>IF(MOD(A2,5)=0,9021,25)</f>
         <v>9021</v>
       </c>
       <c r="D2">
@@ -1103,6 +1116,7 @@
         <v>10</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C59" si="0">IF(MOD(A3,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D3">
@@ -1144,6 +1158,7 @@
         <v>11</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D4">
@@ -1185,6 +1200,7 @@
         <v>11</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D5">
@@ -1226,6 +1242,7 @@
         <v>11</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D6">
@@ -1267,6 +1284,7 @@
         <v>11</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D7">
@@ -1308,6 +1326,7 @@
         <v>11</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D8">
@@ -1349,6 +1368,7 @@
         <v>11</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D9">
@@ -1390,6 +1410,7 @@
         <v>11</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D10">
@@ -1431,6 +1452,7 @@
         <v>11</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D11">
@@ -1472,6 +1494,7 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D12">
@@ -1513,6 +1536,7 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D13">
@@ -1554,6 +1578,7 @@
         <v>11</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D14">
@@ -1595,6 +1620,7 @@
         <v>11</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D15">
@@ -1636,6 +1662,7 @@
         <v>11</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D16">
@@ -1677,6 +1704,7 @@
         <v>11</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D17">
@@ -1718,6 +1746,7 @@
         <v>11</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D18">
@@ -1759,6 +1788,7 @@
         <v>11</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D19">
@@ -1800,6 +1830,7 @@
         <v>11</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D20">
@@ -1841,6 +1872,7 @@
         <v>11</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D21">
@@ -1882,6 +1914,7 @@
         <v>11</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D22">
@@ -1923,6 +1956,7 @@
         <v>11</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D23">
@@ -1964,6 +1998,7 @@
         <v>11</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D24">
@@ -2005,6 +2040,7 @@
         <v>11</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D25">
@@ -2046,6 +2082,7 @@
         <v>11</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D26">
@@ -2087,6 +2124,7 @@
         <v>11</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D27">
@@ -2128,6 +2166,7 @@
         <v>11</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D28">
@@ -2169,6 +2208,7 @@
         <v>11</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D29">
@@ -2210,6 +2250,7 @@
         <v>11</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D30">
@@ -2251,6 +2292,7 @@
         <v>11</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D31">
@@ -2292,6 +2334,7 @@
         <v>11</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D32">
@@ -2333,6 +2376,7 @@
         <v>11</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D33">
@@ -2374,6 +2418,7 @@
         <v>11</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D34">
@@ -2415,6 +2460,7 @@
         <v>11</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D35">
@@ -2456,6 +2502,7 @@
         <v>11</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D36">
@@ -2497,6 +2544,7 @@
         <v>11</v>
       </c>
       <c r="C37">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D37">
@@ -2538,6 +2586,7 @@
         <v>11</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D38">
@@ -2579,6 +2628,7 @@
         <v>11</v>
       </c>
       <c r="C39">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D39">
@@ -2620,6 +2670,7 @@
         <v>11</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D40">
@@ -2661,6 +2712,7 @@
         <v>11</v>
       </c>
       <c r="C41">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D41">
@@ -2702,6 +2754,7 @@
         <v>11</v>
       </c>
       <c r="C42">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D42">
@@ -2743,6 +2796,7 @@
         <v>11</v>
       </c>
       <c r="C43">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D43">
@@ -2784,6 +2838,7 @@
         <v>11</v>
       </c>
       <c r="C44">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D44">
@@ -2825,6 +2880,7 @@
         <v>11</v>
       </c>
       <c r="C45">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D45">
@@ -2866,6 +2922,7 @@
         <v>11</v>
       </c>
       <c r="C46">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D46">
@@ -2907,6 +2964,7 @@
         <v>11</v>
       </c>
       <c r="C47">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D47">
@@ -2948,6 +3006,7 @@
         <v>11</v>
       </c>
       <c r="C48">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D48">
@@ -2989,6 +3048,7 @@
         <v>11</v>
       </c>
       <c r="C49">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D49">
@@ -3030,6 +3090,7 @@
         <v>11</v>
       </c>
       <c r="C50">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D50">
@@ -3071,6 +3132,7 @@
         <v>11</v>
       </c>
       <c r="C51">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D51">
@@ -3112,15 +3174,18 @@
         <v>11</v>
       </c>
       <c r="C52">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D52">
+        <f>IF(C52=9021,D47+1,IF(AND(C52=25,C51=25),D51+2000,D50+2000))</f>
         <v>11</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
+        <f>VLOOKUP(A52+1,Balance!E:G,3,FALSE)</f>
         <v>2.3910399999999999E+101</v>
       </c>
       <c r="G52">
@@ -3133,12 +3198,14 @@
         <v>0</v>
       </c>
       <c r="J52">
+        <f>J51+200</f>
         <v>12000</v>
       </c>
       <c r="K52">
         <v>25</v>
       </c>
       <c r="L52">
+        <f>VLOOKUP(A52+1,Balance!E:K,7,FALSE)</f>
         <v>10200</v>
       </c>
       <c r="M52">
@@ -3153,15 +3220,18 @@
         <v>11</v>
       </c>
       <c r="C53">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D53">
+        <f t="shared" ref="D53:D59" si="1">IF(C53=9021,D48+1,IF(AND(C53=25,C52=25),D52+2000,D51+2000))</f>
         <v>50000</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
+        <f>VLOOKUP(A53+1,Balance!E:G,3,FALSE)</f>
         <v>1.2194304E+103</v>
       </c>
       <c r="G53">
@@ -3174,12 +3244,14 @@
         <v>0</v>
       </c>
       <c r="J53">
+        <f t="shared" ref="J53:J60" si="2">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
         <v>25</v>
       </c>
       <c r="L53">
+        <f>VLOOKUP(A53+1,Balance!E:K,7,FALSE)</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -3194,15 +3266,18 @@
         <v>11</v>
       </c>
       <c r="C54">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D54">
+        <f t="shared" si="1"/>
         <v>52000</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
+        <f>VLOOKUP(A54+1,Balance!E:G,3,FALSE)</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="G54">
@@ -3215,12 +3290,14 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>12200</v>
+        <f t="shared" si="2"/>
+        <v>12400</v>
       </c>
       <c r="K54">
         <v>25</v>
       </c>
       <c r="L54">
+        <f>VLOOKUP(A54+1,Balance!E:K,7,FALSE)</f>
         <v>10600</v>
       </c>
       <c r="M54">
@@ -3235,15 +3312,18 @@
         <v>11</v>
       </c>
       <c r="C55">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D55">
+        <f t="shared" si="1"/>
         <v>54000</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
+        <f>VLOOKUP(A55+1,Balance!E:G,3,FALSE)</f>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="G55">
@@ -3256,12 +3336,14 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>12200</v>
+        <f t="shared" si="2"/>
+        <v>12600</v>
       </c>
       <c r="K55">
         <v>25</v>
       </c>
       <c r="L55">
+        <f>VLOOKUP(A55+1,Balance!E:K,7,FALSE)</f>
         <v>10800</v>
       </c>
       <c r="M55">
@@ -3276,16 +3358,19 @@
         <v>11</v>
       </c>
       <c r="C56">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D56">
+        <f t="shared" si="1"/>
         <v>56000</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>3.1717410000000003E+106</v>
+        <f>VLOOKUP(A56+1,Balance!E:G,3,FALSE)</f>
+        <v>1.6176E+108</v>
       </c>
       <c r="G56">
         <v>1000</v>
@@ -3297,12 +3382,14 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>12200</v>
+        <f t="shared" si="2"/>
+        <v>12800</v>
       </c>
       <c r="K56">
         <v>25</v>
       </c>
       <c r="L56">
+        <f>VLOOKUP(A56+1,Balance!E:K,7,FALSE)</f>
         <v>11000</v>
       </c>
       <c r="M56">
@@ -3317,16 +3404,19 @@
         <v>11</v>
       </c>
       <c r="C57">
+        <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D57">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1.6176E+108</v>
+        <f>VLOOKUP(A57+1,Balance!E:G,3,FALSE)</f>
+        <v>8.2497600000000012E+109</v>
       </c>
       <c r="G57">
         <v>1000</v>
@@ -3338,12 +3428,14 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>12200</v>
+        <f t="shared" si="2"/>
+        <v>13000</v>
       </c>
       <c r="K57">
         <v>25</v>
       </c>
       <c r="L57">
+        <f>VLOOKUP(A57+1,Balance!E:K,7,FALSE)</f>
         <v>11200</v>
       </c>
       <c r="M57">
@@ -3358,16 +3450,19 @@
         <v>11</v>
       </c>
       <c r="C58">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D58">
+        <f t="shared" si="1"/>
         <v>58000</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>8.2497600000000012E+109</v>
+        <f>VLOOKUP(A58+1,Balance!E:G,3,FALSE)</f>
+        <v>4.2073776E+111</v>
       </c>
       <c r="G58">
         <v>1000</v>
@@ -3379,12 +3474,14 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>12200</v>
+        <f t="shared" si="2"/>
+        <v>13200</v>
       </c>
       <c r="K58">
         <v>25</v>
       </c>
       <c r="L58">
+        <f>VLOOKUP(A58+1,Balance!E:K,7,FALSE)</f>
         <v>11400</v>
       </c>
       <c r="M58">
@@ -3399,16 +3496,19 @@
         <v>11</v>
       </c>
       <c r="C59">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D59">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>4.2073776E+111</v>
+        <f>VLOOKUP(A59+1,Balance!E:G,3,FALSE)</f>
+        <v>2.1457699999999997E+113</v>
       </c>
       <c r="G59">
         <v>1000</v>
@@ -3420,21 +3520,69 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>12200</v>
+        <f t="shared" si="2"/>
+        <v>13400</v>
       </c>
       <c r="K59">
         <v>25</v>
       </c>
       <c r="L59">
+        <f>VLOOKUP(A59+1,Balance!E:K,7,FALSE)</f>
         <v>11600</v>
       </c>
       <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60" si="3">IF(MOD(A60,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60" si="4">IF(C60=9021,D55+1,IF(AND(C60=25,C59=25),D59+2000,D58+2000))</f>
+        <v>62000</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f>VLOOKUP(A60+1,Balance!E:G,3,FALSE)</f>
+        <v>1.0943426999999998E+115</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>13600</v>
+      </c>
+      <c r="K60">
+        <v>25</v>
+      </c>
+      <c r="L60">
+        <f>VLOOKUP(A60+1,Balance!E:K,7,FALSE)</f>
+        <v>11800</v>
+      </c>
+      <c r="M60">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J32 K2:K53 G33:J53 E33:E59 A33:C59 M2:M59 G54:K59">
+  <conditionalFormatting sqref="A2:J2 D3:J32 K2:K59 G33:J59 G60:K60 E33:E60 M2:M60 A3:C60">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3446,10 +3594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62:G65"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3694,7 +3842,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H74" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H72" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -4792,10 +4940,20 @@
         <v>5400</v>
       </c>
       <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
+      <c r="M35" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" s="16">
+        <v>112</v>
+      </c>
+      <c r="O35" s="17">
+        <f t="shared" ref="O35:O37" si="10">POWER(10,N35)</f>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="P35" s="17" t="str">
+        <f t="shared" ref="P35:P37" si="11">RIGHT(O35,N35)</f>
+        <v>1E+112</v>
+      </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
@@ -4835,10 +4993,20 @@
         <v>5600</v>
       </c>
       <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
+      <c r="M36" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N36" s="16">
+        <v>116</v>
+      </c>
+      <c r="O36" s="17">
+        <f t="shared" si="10"/>
+        <v>1E+116</v>
+      </c>
+      <c r="P36" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+116</v>
+      </c>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
@@ -4878,10 +5046,20 @@
         <v>5800</v>
       </c>
       <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
+      <c r="M37" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N37" s="16">
+        <v>120</v>
+      </c>
+      <c r="O37" s="17">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="P37" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+120</v>
+      </c>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
@@ -5039,11 +5217,11 @@
         <v>무</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f t="shared" ref="J41:J72" si="10">VLOOKUP(I41,M:P,4,FALSE)</f>
+        <f t="shared" ref="J41:J62" si="12">VLOOKUP(I41,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" ref="K41:K62" si="11">$B$14*E41</f>
+        <f t="shared" ref="K41:K62" si="13">$B$14*E41</f>
         <v>6600</v>
       </c>
       <c r="O41" s="11"/>
@@ -5079,11 +5257,11 @@
         <v>대</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+72</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6800</v>
       </c>
       <c r="O42" s="11"/>
@@ -5119,11 +5297,11 @@
         <v>대</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+72</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7000</v>
       </c>
       <c r="O43" s="11"/>
@@ -5159,11 +5337,11 @@
         <v>대</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+72</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7200</v>
       </c>
       <c r="O44" s="11"/>
@@ -5199,11 +5377,11 @@
         <v>겁</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+76</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7400</v>
       </c>
       <c r="O45" s="11"/>
@@ -5239,11 +5417,11 @@
         <v>겁</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+76</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7600</v>
       </c>
       <c r="O46" s="11"/>
@@ -5279,11 +5457,11 @@
         <v>업</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+80</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7800</v>
       </c>
       <c r="O47" s="11"/>
@@ -5319,11 +5497,11 @@
         <v>업</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+80</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8000</v>
       </c>
       <c r="O48" s="11"/>
@@ -5359,11 +5537,11 @@
         <v>긍</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+84</v>
       </c>
       <c r="K49" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8200</v>
       </c>
       <c r="O49" s="11"/>
@@ -5399,11 +5577,11 @@
         <v>긍</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+84</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8400</v>
       </c>
       <c r="O50" s="11"/>
@@ -5439,11 +5617,11 @@
         <v>긍</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+84</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8600</v>
       </c>
       <c r="O51" s="11"/>
@@ -5479,11 +5657,11 @@
         <v>갈</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+88</v>
       </c>
       <c r="K52" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8800</v>
       </c>
       <c r="O52" s="11"/>
@@ -5519,11 +5697,11 @@
         <v>갈</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+88</v>
       </c>
       <c r="K53" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9000</v>
       </c>
       <c r="O53" s="11"/>
@@ -5559,11 +5737,11 @@
         <v>라</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+92</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9200</v>
       </c>
       <c r="O54" s="11"/>
@@ -5599,11 +5777,11 @@
         <v>라</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+92</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9400</v>
       </c>
       <c r="O55" s="11"/>
@@ -5639,11 +5817,11 @@
         <v>가</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+96</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9600</v>
       </c>
       <c r="O56" s="11"/>
@@ -5679,11 +5857,11 @@
         <v>가</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+96</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9800</v>
       </c>
       <c r="O57" s="11"/>
@@ -5719,11 +5897,11 @@
         <v>가</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+96</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10000</v>
       </c>
       <c r="O58" s="11"/>
@@ -5759,11 +5937,11 @@
         <v>언</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+100</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10200</v>
       </c>
       <c r="O59" s="11"/>
@@ -5799,11 +5977,11 @@
         <v>언</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+100</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10400</v>
       </c>
       <c r="O60" s="11"/>
@@ -5823,11 +6001,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="12">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="14">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="13">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="15">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -5839,11 +6017,11 @@
         <v>승</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10600</v>
       </c>
     </row>
@@ -5852,11 +6030,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -5868,11 +6046,11 @@
         <v>승</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
       <c r="K62" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10800</v>
       </c>
     </row>
@@ -5881,11 +6059,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F74" si="14">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="16">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G74" si="15">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="17">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -5897,11 +6075,11 @@
         <v>마</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f t="shared" ref="J63:J74" si="16">VLOOKUP(I63,M:P,4,FALSE)</f>
+        <f t="shared" ref="J63:J65" si="18">VLOOKUP(I63,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K74" si="17">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="19">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -5910,11 +6088,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -5926,11 +6104,11 @@
         <v>마</v>
       </c>
       <c r="J64" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>11200</v>
       </c>
     </row>
@@ -5939,11 +6117,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -5955,69 +6133,216 @@
         <v>마</v>
       </c>
       <c r="J65" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>11400</v>
       </c>
     </row>
     <row r="66" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E66" s="16"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
+      <c r="E66" s="16">
+        <v>58</v>
+      </c>
+      <c r="F66" s="17" t="str">
+        <f t="shared" ref="F66:F72" si="20">H66&amp;I66</f>
+        <v>21.4577살</v>
+      </c>
+      <c r="G66" s="17">
+        <f t="shared" ref="G66:G72" si="21">H66*J66</f>
+        <v>2.1457699999999997E+113</v>
+      </c>
+      <c r="H66" s="17">
+        <f t="shared" si="6"/>
+        <v>21.457699999999999</v>
+      </c>
+      <c r="I66" s="16" t="str" cm="1">
+        <f t="array" ref="I66">IF(AND(H65&gt;100,H66&lt;100),INDEX(M:M,MATCH(I65,M:M,0)+1,0),I65)</f>
+        <v>살</v>
+      </c>
+      <c r="J66" s="16" t="str">
+        <f t="shared" ref="J66:J72" si="22">VLOOKUP(I66,M:P,4,FALSE)</f>
+        <v>1E+112</v>
+      </c>
+      <c r="K66" s="11">
+        <f t="shared" ref="K66:K72" si="23">$B$14*E66</f>
+        <v>11600</v>
+      </c>
     </row>
     <row r="67" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E67" s="16"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
+      <c r="E67" s="16">
+        <v>59</v>
+      </c>
+      <c r="F67" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>1094.3427살</v>
+      </c>
+      <c r="G67" s="17">
+        <f t="shared" si="21"/>
+        <v>1.0943426999999998E+115</v>
+      </c>
+      <c r="H67" s="17">
+        <f t="shared" si="6"/>
+        <v>1094.3426999999999</v>
+      </c>
+      <c r="I67" s="16" t="str" cm="1">
+        <f t="array" ref="I67">IF(AND(H66&gt;100,H67&lt;100),INDEX(M:M,MATCH(I66,M:M,0)+1,0),I66)</f>
+        <v>살</v>
+      </c>
+      <c r="J67" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K67" s="11">
+        <f t="shared" si="23"/>
+        <v>11800</v>
+      </c>
     </row>
     <row r="68" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E68" s="16"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
+      <c r="E68" s="16">
+        <v>60</v>
+      </c>
+      <c r="F68" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>5.5812섬</v>
+      </c>
+      <c r="G68" s="17">
+        <f t="shared" si="21"/>
+        <v>5.5811999999999997E+116</v>
+      </c>
+      <c r="H68" s="17">
+        <f t="shared" si="6"/>
+        <v>5.5811999999999999</v>
+      </c>
+      <c r="I68" s="16" t="str" cm="1">
+        <f t="array" ref="I68">IF(AND(H67&gt;100,H68&lt;100),INDEX(M:M,MATCH(I67,M:M,0)+1,0),I67)</f>
+        <v>섬</v>
+      </c>
+      <c r="J68" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K68" s="11">
+        <f t="shared" si="23"/>
+        <v>12000</v>
+      </c>
     </row>
     <row r="69" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E69" s="16"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
+      <c r="E69" s="16">
+        <v>61</v>
+      </c>
+      <c r="F69" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>284.6412섬</v>
+      </c>
+      <c r="G69" s="17">
+        <f t="shared" si="21"/>
+        <v>2.8464120000000002E+118</v>
+      </c>
+      <c r="H69" s="17">
+        <f t="shared" si="6"/>
+        <v>284.64120000000003</v>
+      </c>
+      <c r="I69" s="16" t="str" cm="1">
+        <f t="array" ref="I69">IF(AND(H68&gt;100,H69&lt;100),INDEX(M:M,MATCH(I68,M:M,0)+1,0),I68)</f>
+        <v>섬</v>
+      </c>
+      <c r="J69" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K69" s="11">
+        <f t="shared" si="23"/>
+        <v>12200</v>
+      </c>
     </row>
     <row r="70" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E70" s="16"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
+      <c r="E70" s="16">
+        <v>62</v>
+      </c>
+      <c r="F70" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>1.4517a</v>
+      </c>
+      <c r="G70" s="17">
+        <f t="shared" si="21"/>
+        <v>1.4517000000000001E+120</v>
+      </c>
+      <c r="H70" s="17">
+        <f t="shared" si="6"/>
+        <v>1.4517</v>
+      </c>
+      <c r="I70" s="16" t="str" cm="1">
+        <f t="array" ref="I70">IF(AND(H69&gt;100,H70&lt;100),INDEX(M:M,MATCH(I69,M:M,0)+1,0),I69)</f>
+        <v>a</v>
+      </c>
+      <c r="J70" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K70" s="11">
+        <f t="shared" si="23"/>
+        <v>12400</v>
+      </c>
     </row>
     <row r="71" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E71" s="16"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
+      <c r="E71" s="16">
+        <v>63</v>
+      </c>
+      <c r="F71" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>74.0367a</v>
+      </c>
+      <c r="G71" s="17">
+        <f t="shared" si="21"/>
+        <v>7.4036699999999998E+121</v>
+      </c>
+      <c r="H71" s="17">
+        <f t="shared" si="6"/>
+        <v>74.036699999999996</v>
+      </c>
+      <c r="I71" s="16" t="str" cm="1">
+        <f t="array" ref="I71">IF(AND(H70&gt;100,H71&lt;100),INDEX(M:M,MATCH(I70,M:M,0)+1,0),I70)</f>
+        <v>a</v>
+      </c>
+      <c r="J71" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K71" s="11">
+        <f t="shared" si="23"/>
+        <v>12600</v>
+      </c>
     </row>
     <row r="72" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E72" s="16"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
+      <c r="E72" s="16">
+        <v>64</v>
+      </c>
+      <c r="F72" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>3775.8717a</v>
+      </c>
+      <c r="G72" s="17">
+        <f t="shared" si="21"/>
+        <v>3.7758717000000002E+123</v>
+      </c>
+      <c r="H72" s="17">
+        <f t="shared" si="6"/>
+        <v>3775.8717000000001</v>
+      </c>
+      <c r="I72" s="16" t="str" cm="1">
+        <f t="array" ref="I72">IF(AND(H71&gt;100,H72&lt;100),INDEX(M:M,MATCH(I71,M:M,0)+1,0),I71)</f>
+        <v>a</v>
+      </c>
+      <c r="J72" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K72" s="11">
+        <f t="shared" si="23"/>
+        <v>12800</v>
+      </c>
     </row>
     <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="16"/>
@@ -6034,6 +6359,14 @@
       <c r="H74" s="17"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
+    </row>
+    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F55716-7209-4681-BB46-04F7932FB509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A021DB-3295-4D64-8A37-0F0E2A95460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,9 +102,6 @@
   <si>
     <t>1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1</t>
   </si>
   <si>
     <t>타워 밸런스 기준</t>
@@ -1004,11 +1001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1057,13 +1054,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1112,8 +1109,9 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+      <c r="B3" s="1" t="str">
+        <f>B2</f>
+        <v>1-1</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C59" si="0">IF(MOD(A3,5)=0,9021,25)</f>
@@ -1123,6 +1121,7 @@
         <v>100</v>
       </c>
       <c r="E3">
+        <f>E2</f>
         <v>1</v>
       </c>
       <c r="F3" s="2">
@@ -1141,12 +1140,14 @@
         <v>2200</v>
       </c>
       <c r="K3">
+        <f>K2</f>
         <v>25</v>
       </c>
       <c r="L3">
         <v>400</v>
       </c>
       <c r="M3">
+        <f>M2</f>
         <v>0</v>
       </c>
     </row>
@@ -1154,8 +1155,9 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+      <c r="B4" s="1" t="str">
+        <f t="shared" ref="B4:B61" si="1">B3</f>
+        <v>1-1</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -1165,6 +1167,7 @@
         <v>200</v>
       </c>
       <c r="E4">
+        <f t="shared" ref="E4:E61" si="2">E3</f>
         <v>1</v>
       </c>
       <c r="F4" s="2">
@@ -1183,12 +1186,14 @@
         <v>2400</v>
       </c>
       <c r="K4">
+        <f t="shared" ref="K4:K61" si="3">K3</f>
         <v>25</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4">
+        <f t="shared" ref="M4:M61" si="4">M3</f>
         <v>0</v>
       </c>
     </row>
@@ -1196,8 +1201,9 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -1207,6 +1213,7 @@
         <v>300</v>
       </c>
       <c r="E5">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F5" s="2">
@@ -1225,12 +1232,14 @@
         <v>2600</v>
       </c>
       <c r="K5">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L5">
         <v>800</v>
       </c>
       <c r="M5">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1238,8 +1247,9 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1249,6 +1259,7 @@
         <v>400</v>
       </c>
       <c r="E6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F6" s="2">
@@ -1267,12 +1278,14 @@
         <v>2800</v>
       </c>
       <c r="K6">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L6">
         <v>1000</v>
       </c>
       <c r="M6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1280,8 +1293,9 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1291,6 +1305,7 @@
         <v>2</v>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F7" s="2">
@@ -1309,12 +1324,14 @@
         <v>3000</v>
       </c>
       <c r="K7">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L7">
         <v>1200</v>
       </c>
       <c r="M7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1322,8 +1339,9 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1333,6 +1351,7 @@
         <v>700</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F8" s="2">
@@ -1351,12 +1370,14 @@
         <v>3200</v>
       </c>
       <c r="K8">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L8">
         <v>1400</v>
       </c>
       <c r="M8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1364,8 +1385,9 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1375,6 +1397,7 @@
         <v>1000</v>
       </c>
       <c r="E9">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F9" s="2">
@@ -1393,12 +1416,14 @@
         <v>3400</v>
       </c>
       <c r="K9">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L9">
         <v>1600</v>
       </c>
       <c r="M9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1406,8 +1431,9 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1417,6 +1443,7 @@
         <v>1300</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F10" s="2">
@@ -1435,12 +1462,14 @@
         <v>3600</v>
       </c>
       <c r="K10">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L10">
         <v>1800</v>
       </c>
       <c r="M10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1448,8 +1477,9 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1459,6 +1489,7 @@
         <v>1600</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F11" s="2">
@@ -1477,12 +1508,14 @@
         <v>3800</v>
       </c>
       <c r="K11">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1490,8 +1523,9 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -1501,6 +1535,7 @@
         <v>3</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F12" s="2">
@@ -1519,12 +1554,14 @@
         <v>4000</v>
       </c>
       <c r="K12">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L12">
         <v>2200</v>
       </c>
       <c r="M12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1532,8 +1569,9 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1543,6 +1581,7 @@
         <v>2000</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F13" s="2">
@@ -1561,12 +1600,14 @@
         <v>4200</v>
       </c>
       <c r="K13">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L13">
         <v>2400</v>
       </c>
       <c r="M13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1574,8 +1615,9 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -1585,6 +1627,7 @@
         <v>2500</v>
       </c>
       <c r="E14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F14" s="2">
@@ -1603,12 +1646,14 @@
         <v>4400</v>
       </c>
       <c r="K14">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L14">
         <v>2600</v>
       </c>
       <c r="M14">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1616,8 +1661,9 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -1627,6 +1673,7 @@
         <v>3000</v>
       </c>
       <c r="E15">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F15" s="2">
@@ -1645,12 +1692,14 @@
         <v>4600</v>
       </c>
       <c r="K15">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L15">
         <v>2800</v>
       </c>
       <c r="M15">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1658,8 +1707,9 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1669,6 +1719,7 @@
         <v>3500</v>
       </c>
       <c r="E16">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F16" s="2">
@@ -1687,12 +1738,14 @@
         <v>4800</v>
       </c>
       <c r="K16">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L16">
         <v>3000</v>
       </c>
       <c r="M16">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1700,8 +1753,9 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1711,6 +1765,7 @@
         <v>4</v>
       </c>
       <c r="E17">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F17" s="2">
@@ -1729,12 +1784,14 @@
         <v>5000</v>
       </c>
       <c r="K17">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L17">
         <v>3200</v>
       </c>
       <c r="M17">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1742,8 +1799,9 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1753,6 +1811,7 @@
         <v>4000</v>
       </c>
       <c r="E18">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F18" s="2">
@@ -1771,12 +1830,14 @@
         <v>5200</v>
       </c>
       <c r="K18">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L18">
         <v>3400</v>
       </c>
       <c r="M18">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1784,8 +1845,9 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1795,6 +1857,7 @@
         <v>5000</v>
       </c>
       <c r="E19">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F19" s="2">
@@ -1813,12 +1876,14 @@
         <v>5400</v>
       </c>
       <c r="K19">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L19">
         <v>3600</v>
       </c>
       <c r="M19">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1826,8 +1891,9 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -1837,6 +1903,7 @@
         <v>6000</v>
       </c>
       <c r="E20">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F20" s="2">
@@ -1855,12 +1922,14 @@
         <v>5600</v>
       </c>
       <c r="K20">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L20">
         <v>3800</v>
       </c>
       <c r="M20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1868,8 +1937,9 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1879,6 +1949,7 @@
         <v>7000</v>
       </c>
       <c r="E21">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F21" s="2">
@@ -1897,12 +1968,14 @@
         <v>5800</v>
       </c>
       <c r="K21">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L21">
         <v>4000</v>
       </c>
       <c r="M21">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1910,8 +1983,9 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1921,6 +1995,7 @@
         <v>5</v>
       </c>
       <c r="E22">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F22" s="2">
@@ -1939,12 +2014,14 @@
         <v>6000</v>
       </c>
       <c r="K22">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L22">
         <v>4200</v>
       </c>
       <c r="M22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1952,8 +2029,9 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -1963,6 +2041,7 @@
         <v>10000</v>
       </c>
       <c r="E23">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F23" s="2">
@@ -1981,12 +2060,14 @@
         <v>6200</v>
       </c>
       <c r="K23">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L23">
         <v>4400</v>
       </c>
       <c r="M23">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1994,8 +2075,9 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -2005,6 +2087,7 @@
         <v>13000</v>
       </c>
       <c r="E24">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F24" s="2">
@@ -2023,12 +2106,14 @@
         <v>6400</v>
       </c>
       <c r="K24">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L24">
         <v>4600</v>
       </c>
       <c r="M24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2036,8 +2121,9 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -2047,6 +2133,7 @@
         <v>16000</v>
       </c>
       <c r="E25">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F25" s="2">
@@ -2065,12 +2152,14 @@
         <v>6600</v>
       </c>
       <c r="K25">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L25">
         <v>4800</v>
       </c>
       <c r="M25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2078,8 +2167,9 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -2089,6 +2179,7 @@
         <v>19000</v>
       </c>
       <c r="E26">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F26" s="2">
@@ -2107,12 +2198,14 @@
         <v>6800</v>
       </c>
       <c r="K26">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L26">
         <v>5000</v>
       </c>
       <c r="M26">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2120,8 +2213,9 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -2131,6 +2225,7 @@
         <v>6</v>
       </c>
       <c r="E27">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F27" s="2">
@@ -2149,12 +2244,14 @@
         <v>7000</v>
       </c>
       <c r="K27">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L27">
         <v>5200</v>
       </c>
       <c r="M27">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2162,8 +2259,9 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -2173,6 +2271,7 @@
         <v>20000</v>
       </c>
       <c r="E28">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F28" s="2">
@@ -2191,12 +2290,14 @@
         <v>7200</v>
       </c>
       <c r="K28">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L28">
         <v>5400</v>
       </c>
       <c r="M28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2204,8 +2305,9 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -2215,6 +2317,7 @@
         <v>7000</v>
       </c>
       <c r="E29">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F29" s="2">
@@ -2233,12 +2336,14 @@
         <v>7400</v>
       </c>
       <c r="K29">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L29">
         <v>5600</v>
       </c>
       <c r="M29">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2246,8 +2351,9 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -2257,6 +2363,7 @@
         <v>7500</v>
       </c>
       <c r="E30">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F30" s="2">
@@ -2275,12 +2382,14 @@
         <v>7600</v>
       </c>
       <c r="K30">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L30">
         <v>5800</v>
       </c>
       <c r="M30">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2288,8 +2397,9 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -2299,6 +2409,7 @@
         <v>8000</v>
       </c>
       <c r="E31">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F31" s="2">
@@ -2317,12 +2428,14 @@
         <v>7800</v>
       </c>
       <c r="K31">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L31">
         <v>6000</v>
       </c>
       <c r="M31">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,8 +2443,9 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>11</v>
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -2341,6 +2455,7 @@
         <v>7</v>
       </c>
       <c r="E32">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F32" s="2">
@@ -2359,12 +2474,14 @@
         <v>8000</v>
       </c>
       <c r="K32">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L32">
         <v>6200</v>
       </c>
       <c r="M32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2372,8 +2489,9 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -2383,6 +2501,7 @@
         <v>10000</v>
       </c>
       <c r="E33">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F33">
@@ -2401,12 +2520,14 @@
         <v>8200</v>
       </c>
       <c r="K33">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L33">
         <v>6400</v>
       </c>
       <c r="M33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2414,8 +2535,9 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -2425,6 +2547,7 @@
         <v>11000</v>
       </c>
       <c r="E34">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F34">
@@ -2443,12 +2566,14 @@
         <v>8400</v>
       </c>
       <c r="K34">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L34">
         <v>6600</v>
       </c>
       <c r="M34">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2456,8 +2581,9 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -2467,6 +2593,7 @@
         <v>12000</v>
       </c>
       <c r="E35">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F35">
@@ -2485,12 +2612,14 @@
         <v>8600</v>
       </c>
       <c r="K35">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L35">
         <v>6800</v>
       </c>
       <c r="M35">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2498,8 +2627,9 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>11</v>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -2509,6 +2639,7 @@
         <v>13000</v>
       </c>
       <c r="E36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F36">
@@ -2527,12 +2658,14 @@
         <v>8800</v>
       </c>
       <c r="K36">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L36">
         <v>7000</v>
       </c>
       <c r="M36">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2540,8 +2673,9 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -2551,6 +2685,7 @@
         <v>8</v>
       </c>
       <c r="E37">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F37">
@@ -2569,12 +2704,14 @@
         <v>9000</v>
       </c>
       <c r="K37">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L37">
         <v>7200</v>
       </c>
       <c r="M37">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2582,8 +2719,9 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>11</v>
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -2593,6 +2731,7 @@
         <v>15000</v>
       </c>
       <c r="E38">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F38">
@@ -2611,12 +2750,14 @@
         <v>9200</v>
       </c>
       <c r="K38">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L38">
         <v>7400</v>
       </c>
       <c r="M38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2624,8 +2765,9 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -2635,6 +2777,7 @@
         <v>16000</v>
       </c>
       <c r="E39">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F39">
@@ -2653,12 +2796,14 @@
         <v>9400</v>
       </c>
       <c r="K39">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L39">
         <v>7600</v>
       </c>
       <c r="M39">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2666,8 +2811,9 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>11</v>
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -2677,6 +2823,7 @@
         <v>17000</v>
       </c>
       <c r="E40">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F40">
@@ -2695,12 +2842,14 @@
         <v>9600</v>
       </c>
       <c r="K40">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L40">
         <v>7800</v>
       </c>
       <c r="M40">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2708,8 +2857,9 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>11</v>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -2719,6 +2869,7 @@
         <v>18000</v>
       </c>
       <c r="E41">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F41">
@@ -2737,12 +2888,14 @@
         <v>9800</v>
       </c>
       <c r="K41">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L41">
         <v>8000</v>
       </c>
       <c r="M41">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2750,8 +2903,9 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>11</v>
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -2761,6 +2915,7 @@
         <v>9</v>
       </c>
       <c r="E42">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F42">
@@ -2779,12 +2934,14 @@
         <v>10000</v>
       </c>
       <c r="K42">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L42">
         <v>8200</v>
       </c>
       <c r="M42">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2792,8 +2949,9 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>11</v>
+      <c r="B43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -2803,6 +2961,7 @@
         <v>26000</v>
       </c>
       <c r="E43">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F43">
@@ -2821,12 +2980,14 @@
         <v>10200</v>
       </c>
       <c r="K43">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L43">
         <v>8400</v>
       </c>
       <c r="M43">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2834,8 +2995,9 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>11</v>
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -2845,6 +3007,7 @@
         <v>30000</v>
       </c>
       <c r="E44">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F44">
@@ -2863,12 +3026,14 @@
         <v>10400</v>
       </c>
       <c r="K44">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L44">
         <v>8600</v>
       </c>
       <c r="M44">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2876,8 +3041,9 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>11</v>
+      <c r="B45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -2887,6 +3053,7 @@
         <v>34000</v>
       </c>
       <c r="E45">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F45">
@@ -2905,12 +3072,14 @@
         <v>10600</v>
       </c>
       <c r="K45">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L45">
         <v>8800</v>
       </c>
       <c r="M45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2918,8 +3087,9 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>11</v>
+      <c r="B46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -2929,6 +3099,7 @@
         <v>38000</v>
       </c>
       <c r="E46">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F46">
@@ -2947,12 +3118,14 @@
         <v>10800</v>
       </c>
       <c r="K46">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L46">
         <v>9000</v>
       </c>
       <c r="M46">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2960,8 +3133,9 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>11</v>
+      <c r="B47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -2971,6 +3145,7 @@
         <v>10</v>
       </c>
       <c r="E47">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F47">
@@ -2989,12 +3164,14 @@
         <v>11000</v>
       </c>
       <c r="K47">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L47">
         <v>9200</v>
       </c>
       <c r="M47">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3002,8 +3179,9 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>11</v>
+      <c r="B48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -3013,6 +3191,7 @@
         <v>42000</v>
       </c>
       <c r="E48">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F48">
@@ -3031,12 +3210,14 @@
         <v>11200</v>
       </c>
       <c r="K48">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L48">
         <v>9400</v>
       </c>
       <c r="M48">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3044,8 +3225,9 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>11</v>
+      <c r="B49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -3055,6 +3237,7 @@
         <v>44000</v>
       </c>
       <c r="E49">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F49">
@@ -3073,12 +3256,14 @@
         <v>11400</v>
       </c>
       <c r="K49">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L49">
         <v>9600</v>
       </c>
       <c r="M49">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3086,8 +3271,9 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>11</v>
+      <c r="B50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -3097,6 +3283,7 @@
         <v>46000</v>
       </c>
       <c r="E50">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F50">
@@ -3115,12 +3302,14 @@
         <v>11600</v>
       </c>
       <c r="K50">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L50">
         <v>9800</v>
       </c>
       <c r="M50">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3128,8 +3317,9 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>11</v>
+      <c r="B51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -3139,6 +3329,7 @@
         <v>48000</v>
       </c>
       <c r="E51">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F51">
@@ -3157,12 +3348,14 @@
         <v>11800</v>
       </c>
       <c r="K51">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L51">
         <v>10000</v>
       </c>
       <c r="M51">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3170,8 +3363,9 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>11</v>
+      <c r="B52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -3182,6 +3376,7 @@
         <v>11</v>
       </c>
       <c r="E52">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F52">
@@ -3202,6 +3397,7 @@
         <v>12000</v>
       </c>
       <c r="K52">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L52">
@@ -3209,6 +3405,7 @@
         <v>10200</v>
       </c>
       <c r="M52">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3216,18 +3413,20 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>11</v>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:D59" si="1">IF(C53=9021,D48+1,IF(AND(C53=25,C52=25),D52+2000,D51+2000))</f>
+        <f t="shared" ref="D53:D59" si="5">IF(C53=9021,D48+1,IF(AND(C53=25,C52=25),D52+2000,D51+2000))</f>
         <v>50000</v>
       </c>
       <c r="E53">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F53">
@@ -3244,10 +3443,11 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J60" si="2">J52+200</f>
+        <f t="shared" ref="J53:J61" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L53">
@@ -3255,6 +3455,7 @@
         <v>10400</v>
       </c>
       <c r="M53">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3262,18 +3463,20 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>52000</v>
       </c>
       <c r="E54">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F54">
@@ -3290,10 +3493,11 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12400</v>
       </c>
       <c r="K54">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L54">
@@ -3301,6 +3505,7 @@
         <v>10600</v>
       </c>
       <c r="M54">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3308,18 +3513,20 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>11</v>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>54000</v>
       </c>
       <c r="E55">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F55">
@@ -3336,10 +3543,11 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12600</v>
       </c>
       <c r="K55">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L55">
@@ -3347,6 +3555,7 @@
         <v>10800</v>
       </c>
       <c r="M55">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3354,23 +3563,25 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>11</v>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>56000</v>
       </c>
       <c r="E56">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F56">
-        <f>VLOOKUP(A56+1,Balance!E:G,3,FALSE)</f>
-        <v>1.6176E+108</v>
+        <f>VLOOKUP(A56,Balance!E:G,3,FALSE)</f>
+        <v>3.1717410000000003E+106</v>
       </c>
       <c r="G56">
         <v>1000</v>
@@ -3382,10 +3593,11 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12800</v>
       </c>
       <c r="K56">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L56">
@@ -3393,6 +3605,7 @@
         <v>11000</v>
       </c>
       <c r="M56">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3400,23 +3613,25 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>11</v>
+      <c r="B57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
         <v>9021</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E57">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F57">
-        <f>VLOOKUP(A57+1,Balance!E:G,3,FALSE)</f>
-        <v>8.2497600000000012E+109</v>
+        <f>VLOOKUP(A57,Balance!E:G,3,FALSE)</f>
+        <v>1.6176E+108</v>
       </c>
       <c r="G57">
         <v>1000</v>
@@ -3428,10 +3643,11 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13000</v>
       </c>
       <c r="K57">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L57">
@@ -3439,6 +3655,7 @@
         <v>11200</v>
       </c>
       <c r="M57">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3446,23 +3663,25 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
+      <c r="B58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>58000</v>
       </c>
       <c r="E58">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F58">
-        <f>VLOOKUP(A58+1,Balance!E:G,3,FALSE)</f>
-        <v>4.2073776E+111</v>
+        <f>VLOOKUP(A58,Balance!E:G,3,FALSE)</f>
+        <v>8.2497600000000012E+109</v>
       </c>
       <c r="G58">
         <v>1000</v>
@@ -3474,10 +3693,11 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13200</v>
       </c>
       <c r="K58">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L58">
@@ -3485,6 +3705,7 @@
         <v>11400</v>
       </c>
       <c r="M58">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3492,23 +3713,25 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>11</v>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
       <c r="E59">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F59">
-        <f>VLOOKUP(A59+1,Balance!E:G,3,FALSE)</f>
-        <v>2.1457699999999997E+113</v>
+        <f>VLOOKUP(A59,Balance!E:G,3,FALSE)</f>
+        <v>4.2073776E+111</v>
       </c>
       <c r="G59">
         <v>1000</v>
@@ -3520,10 +3743,11 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13400</v>
       </c>
       <c r="K59">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L59">
@@ -3531,6 +3755,7 @@
         <v>11600</v>
       </c>
       <c r="M59">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3538,23 +3763,25 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>11</v>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60" si="3">IF(MOD(A60,5)=0,9021,25)</f>
+        <f t="shared" ref="C60" si="7">IF(MOD(A60,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60" si="4">IF(C60=9021,D55+1,IF(AND(C60=25,C59=25),D59+2000,D58+2000))</f>
+        <f t="shared" ref="D60" si="8">IF(C60=9021,D55+1,IF(AND(C60=25,C59=25),D59+2000,D58+2000))</f>
         <v>62000</v>
       </c>
       <c r="E60">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F60">
-        <f>VLOOKUP(A60+1,Balance!E:G,3,FALSE)</f>
-        <v>1.0943426999999998E+115</v>
+        <f>VLOOKUP(A60,Balance!E:G,3,FALSE)</f>
+        <v>2.1457699999999997E+113</v>
       </c>
       <c r="G60">
         <v>1000</v>
@@ -3566,10 +3793,11 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13600</v>
       </c>
       <c r="K60">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="L60">
@@ -3577,12 +3805,63 @@
         <v>11800</v>
       </c>
       <c r="M60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61" si="9">IF(MOD(A61,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61" si="10">IF(C61=9021,D56+1,IF(AND(C61=25,C60=25),D60+2000,D59+2000))</f>
+        <v>64000</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f>VLOOKUP(A61,Balance!E:G,3,FALSE)</f>
+        <v>1.0943426999999998E+115</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="6"/>
+        <v>13800</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L61">
+        <f>VLOOKUP(A61+1,Balance!E:K,7,FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 D3:J32 K2:K59 G33:J59 G60:K60 E33:E60 M2:M60 A3:C60">
+  <conditionalFormatting sqref="A2:J2 D3:J3 G33:J61 D4:D32 F4:J32 E4:E61 M2:M61 A3:C61 K2:K61">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3620,7 +3899,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="26"/>
       <c r="E1" s="4"/>
@@ -3655,58 +3934,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="29"/>
       <c r="E6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="E7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>17</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="K7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="15"/>
       <c r="E8" s="16"/>
@@ -3716,7 +3995,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="M8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="16">
         <v>4</v>
@@ -3732,10 +4011,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="15"/>
       <c r="E9" s="16">
@@ -3753,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="16" t="str">
         <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,M:P,4,FALSE)</f>
@@ -3764,7 +4043,7 @@
         <v>200</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N9" s="16">
         <v>8</v>
@@ -3780,7 +4059,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="20">
         <v>5000</v>
@@ -3814,7 +4093,7 @@
         <v>400</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="16">
         <v>12</v>
@@ -3858,7 +4137,7 @@
         <v>600</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N11" s="16">
         <v>16</v>
@@ -3874,7 +4153,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -3906,7 +4185,7 @@
         <v>800</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="16">
         <v>20</v>
@@ -3922,10 +4201,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="C13" s="15"/>
       <c r="E13" s="16">
@@ -3956,7 +4235,7 @@
         <v>1000</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N13" s="16">
         <v>24</v>
@@ -3972,7 +4251,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="20">
         <v>200</v>
@@ -4006,7 +4285,7 @@
         <v>1200</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" s="16">
         <v>28</v>
@@ -4050,7 +4329,7 @@
         <v>1400</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N15" s="16">
         <v>32</v>
@@ -4096,7 +4375,7 @@
         <v>1600</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N16" s="16">
         <v>36</v>
@@ -4140,7 +4419,7 @@
         <v>1800</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17" s="16">
         <v>40</v>
@@ -4184,7 +4463,7 @@
         <v>2000</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18" s="16">
         <v>44</v>
@@ -4228,7 +4507,7 @@
         <v>2200</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N19" s="16">
         <v>48</v>
@@ -4272,7 +4551,7 @@
         <v>2400</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" s="16">
         <v>52</v>
@@ -4316,7 +4595,7 @@
         <v>2600</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N21" s="16">
         <v>56</v>
@@ -4360,7 +4639,7 @@
         <v>2800</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N22" s="16">
         <v>60</v>
@@ -4403,7 +4682,7 @@
         <v>3000</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="16">
         <v>64</v>
@@ -4446,7 +4725,7 @@
         <v>3200</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N24" s="16">
         <v>68</v>
@@ -4489,7 +4768,7 @@
         <v>3400</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N25" s="16">
         <v>72</v>
@@ -4532,7 +4811,7 @@
         <v>3600</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N26" s="16">
         <v>76</v>
@@ -4575,7 +4854,7 @@
         <v>3800</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N27" s="16">
         <v>80</v>
@@ -4618,7 +4897,7 @@
         <v>4000</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N28" s="16">
         <v>84</v>
@@ -4661,7 +4940,7 @@
         <v>4200</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29" s="16">
         <v>88</v>
@@ -4704,7 +4983,7 @@
         <v>4400</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N30" s="16">
         <v>92</v>
@@ -4747,7 +5026,7 @@
         <v>4600</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N31" s="16">
         <v>96</v>
@@ -4791,7 +5070,7 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N32" s="16">
         <v>100</v>
@@ -4835,7 +5114,7 @@
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N33" s="16">
         <v>104</v>
@@ -4888,7 +5167,7 @@
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N34" s="16">
         <v>108</v>
@@ -4941,7 +5220,7 @@
       </c>
       <c r="L35" s="13"/>
       <c r="M35" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N35" s="16">
         <v>112</v>
@@ -4994,7 +5273,7 @@
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N36" s="16">
         <v>116</v>
@@ -5047,7 +5326,7 @@
       </c>
       <c r="L37" s="13"/>
       <c r="M37" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N37" s="16">
         <v>120</v>
@@ -6401,7 +6680,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="26"/>
     </row>
@@ -6411,15 +6690,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="24">
         <v>1560</v>
@@ -6427,30 +6706,30 @@
     </row>
     <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>62</v>
-      </c>
       <c r="G7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="I7" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="22">
         <v>10000</v>
@@ -6475,7 +6754,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="22">
         <v>23000</v>
@@ -6497,7 +6776,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="22">
         <v>10000</v>
@@ -6519,7 +6798,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="22">
         <v>0</v>
@@ -6574,7 +6853,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="16">
         <v>8</v>
@@ -6588,16 +6867,16 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="G16" s="16">
         <v>9</v>
@@ -6611,7 +6890,7 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="9">
         <v>40</v>
@@ -6635,7 +6914,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="9">
         <v>3</v>
@@ -6659,7 +6938,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="9">
         <v>5.0000000000000001E-3</v>
@@ -6683,7 +6962,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="9">
         <v>1E-4</v>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A021DB-3295-4D64-8A37-0F0E2A95460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2271A87-F58D-4207-9796-8AAB012DD9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,7 +402,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1001,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B61" si="1">B3</f>
+        <f t="shared" ref="B4:B64" si="1">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1167,7 +1171,7 @@
         <v>200</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E61" si="2">E3</f>
+        <f t="shared" ref="E4:E64" si="2">E3</f>
         <v>1</v>
       </c>
       <c r="F4" s="2">
@@ -1186,14 +1190,14 @@
         <v>2400</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K61" si="3">K3</f>
+        <f t="shared" ref="K4:K64" si="3">K3</f>
         <v>25</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M61" si="4">M3</f>
+        <f t="shared" ref="M4:M64" si="4">M3</f>
         <v>0</v>
       </c>
     </row>
@@ -3443,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J61" si="6">J52+200</f>
+        <f t="shared" ref="J53:J64" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3818,11 +3822,11 @@
         <v>1-1</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61" si="9">IF(MOD(A61,5)=0,9021,25)</f>
+        <f t="shared" ref="C61:C62" si="9">IF(MOD(A61,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61" si="10">IF(C61=9021,D56+1,IF(AND(C61=25,C60=25),D60+2000,D59+2000))</f>
+        <f t="shared" ref="D61:D62" si="10">IF(C61=9021,D56+1,IF(AND(C61=25,C60=25),D60+2000,D59+2000))</f>
         <v>64000</v>
       </c>
       <c r="E61">
@@ -3859,9 +3863,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="9"/>
+        <v>9021</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f>VLOOKUP(A62,Balance!E:G,3,FALSE)</f>
+        <v>5.5811999999999997E+116</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="6"/>
+        <v>14000</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L62">
+        <f>VLOOKUP(A62+1,Balance!E:K,7,FALSE)</f>
+        <v>12200</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:C64" si="11">IF(MOD(A63,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:D64" si="12">IF(C63=9021,D58+1,IF(AND(C63=25,C62=25),D62+2000,D61+2000))</f>
+        <v>66000</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f>VLOOKUP(A63,Balance!E:G,3,FALSE)</f>
+        <v>2.8464120000000002E+118</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="6"/>
+        <v>14200</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L63">
+        <f>VLOOKUP(A63+1,Balance!E:K,7,FALSE)</f>
+        <v>12400</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="12"/>
+        <v>68000</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f>VLOOKUP(A64,Balance!E:G,3,FALSE)</f>
+        <v>1.4517000000000001E+120</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L64">
+        <f>VLOOKUP(A64+1,Balance!E:K,7,FALSE)</f>
+        <v>12600</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 D3:J3 G33:J61 D4:D32 F4:J32 E4:E61 M2:M61 A3:C61 K2:K61">
+  <conditionalFormatting sqref="A2:J2 D3:J3 G33:J61 D4:D32 F4:J32 K2:K61 G62:K64 E4:E64 M2:M64 A3:C64">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3875,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5378,10 +5532,20 @@
         <v>6000</v>
       </c>
       <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
+      <c r="M38" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N38" s="16">
+        <v>124</v>
+      </c>
+      <c r="O38" s="17">
+        <f t="shared" ref="O38" si="12">POWER(10,N38)</f>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="P38" s="17" t="str">
+        <f t="shared" ref="P38" si="13">RIGHT(O38,N38)</f>
+        <v>1E+124</v>
+      </c>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
@@ -5496,11 +5660,11 @@
         <v>무</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f t="shared" ref="J41:J62" si="12">VLOOKUP(I41,M:P,4,FALSE)</f>
+        <f t="shared" ref="J41:J62" si="14">VLOOKUP(I41,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" ref="K41:K62" si="13">$B$14*E41</f>
+        <f t="shared" ref="K41:K62" si="15">$B$14*E41</f>
         <v>6600</v>
       </c>
       <c r="O41" s="11"/>
@@ -5536,11 +5700,11 @@
         <v>대</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6800</v>
       </c>
       <c r="O42" s="11"/>
@@ -5576,11 +5740,11 @@
         <v>대</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7000</v>
       </c>
       <c r="O43" s="11"/>
@@ -5616,11 +5780,11 @@
         <v>대</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7200</v>
       </c>
       <c r="O44" s="11"/>
@@ -5656,11 +5820,11 @@
         <v>겁</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7400</v>
       </c>
       <c r="O45" s="11"/>
@@ -5696,11 +5860,11 @@
         <v>겁</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7600</v>
       </c>
       <c r="O46" s="11"/>
@@ -5736,11 +5900,11 @@
         <v>업</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7800</v>
       </c>
       <c r="O47" s="11"/>
@@ -5776,11 +5940,11 @@
         <v>업</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
       <c r="O48" s="11"/>
@@ -5816,11 +5980,11 @@
         <v>긍</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+84</v>
       </c>
       <c r="K49" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8200</v>
       </c>
       <c r="O49" s="11"/>
@@ -5856,11 +6020,11 @@
         <v>긍</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+84</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8400</v>
       </c>
       <c r="O50" s="11"/>
@@ -5896,11 +6060,11 @@
         <v>긍</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+84</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8600</v>
       </c>
       <c r="O51" s="11"/>
@@ -5936,11 +6100,11 @@
         <v>갈</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+88</v>
       </c>
       <c r="K52" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8800</v>
       </c>
       <c r="O52" s="11"/>
@@ -5976,11 +6140,11 @@
         <v>갈</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+88</v>
       </c>
       <c r="K53" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9000</v>
       </c>
       <c r="O53" s="11"/>
@@ -6016,11 +6180,11 @@
         <v>라</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+92</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9200</v>
       </c>
       <c r="O54" s="11"/>
@@ -6056,11 +6220,11 @@
         <v>라</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+92</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9400</v>
       </c>
       <c r="O55" s="11"/>
@@ -6096,11 +6260,11 @@
         <v>가</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+96</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9600</v>
       </c>
       <c r="O56" s="11"/>
@@ -6136,11 +6300,11 @@
         <v>가</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+96</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9800</v>
       </c>
       <c r="O57" s="11"/>
@@ -6176,11 +6340,11 @@
         <v>가</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+96</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="O58" s="11"/>
@@ -6216,11 +6380,11 @@
         <v>언</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+100</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
       <c r="O59" s="11"/>
@@ -6256,11 +6420,11 @@
         <v>언</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+100</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10400</v>
       </c>
       <c r="O60" s="11"/>
@@ -6280,11 +6444,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="14">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="16">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="15">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="17">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -6296,11 +6460,11 @@
         <v>승</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+104</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10600</v>
       </c>
     </row>
@@ -6309,11 +6473,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -6325,11 +6489,11 @@
         <v>승</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+104</v>
       </c>
       <c r="K62" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
     </row>
@@ -6338,11 +6502,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="16">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="18">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="17">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="19">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -6354,11 +6518,11 @@
         <v>마</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f t="shared" ref="J63:J65" si="18">VLOOKUP(I63,M:P,4,FALSE)</f>
+        <f t="shared" ref="J63:J65" si="20">VLOOKUP(I63,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="19">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="21">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -6367,11 +6531,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -6383,11 +6547,11 @@
         <v>마</v>
       </c>
       <c r="J64" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11200</v>
       </c>
     </row>
@@ -6396,11 +6560,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -6412,11 +6576,11 @@
         <v>마</v>
       </c>
       <c r="J65" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11400</v>
       </c>
     </row>
@@ -6425,11 +6589,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="20">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="22">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="21">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="23">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -6441,11 +6605,11 @@
         <v>살</v>
       </c>
       <c r="J66" s="16" t="str">
-        <f t="shared" ref="J66:J72" si="22">VLOOKUP(I66,M:P,4,FALSE)</f>
+        <f t="shared" ref="J66:J72" si="24">VLOOKUP(I66,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="23">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="25">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -6454,11 +6618,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -6470,11 +6634,11 @@
         <v>살</v>
       </c>
       <c r="J67" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>11800</v>
       </c>
     </row>
@@ -6483,11 +6647,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -6499,11 +6663,11 @@
         <v>섬</v>
       </c>
       <c r="J68" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>12000</v>
       </c>
     </row>
@@ -6512,11 +6676,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -6528,11 +6692,11 @@
         <v>섬</v>
       </c>
       <c r="J69" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>12200</v>
       </c>
     </row>
@@ -6541,11 +6705,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>1.4517a</v>
+        <f t="shared" si="22"/>
+        <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -6554,14 +6718,14 @@
       </c>
       <c r="I70" s="16" t="str" cm="1">
         <f t="array" ref="I70">IF(AND(H69&gt;100,H70&lt;100),INDEX(M:M,MATCH(I69,M:M,0)+1,0),I69)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>12400</v>
       </c>
     </row>
@@ -6570,11 +6734,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>74.0367a</v>
+        <f t="shared" si="22"/>
+        <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -6583,14 +6747,14 @@
       </c>
       <c r="I71" s="16" t="str" cm="1">
         <f t="array" ref="I71">IF(AND(H70&gt;100,H71&lt;100),INDEX(M:M,MATCH(I70,M:M,0)+1,0),I70)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>12600</v>
       </c>
     </row>
@@ -6599,11 +6763,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>3775.8717a</v>
+        <f t="shared" si="22"/>
+        <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -6612,14 +6776,14 @@
       </c>
       <c r="I72" s="16" t="str" cm="1">
         <f t="array" ref="I72">IF(AND(H71&gt;100,H72&lt;100),INDEX(M:M,MATCH(I71,M:M,0)+1,0),I71)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>12800</v>
       </c>
     </row>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2271A87-F58D-4207-9796-8AAB012DD9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E15D801-46DA-47EF-BD65-C85CAE9B301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,10 @@
   </si>
   <si>
     <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,11 +1009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B64" si="1">B3</f>
+        <f t="shared" ref="B4:B68" si="1">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1171,7 +1175,7 @@
         <v>200</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E64" si="2">E3</f>
+        <f t="shared" ref="E4:E68" si="2">E3</f>
         <v>1</v>
       </c>
       <c r="F4" s="2">
@@ -1190,14 +1194,14 @@
         <v>2400</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K64" si="3">K3</f>
+        <f t="shared" ref="K4:K68" si="3">K3</f>
         <v>25</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M64" si="4">M3</f>
+        <f t="shared" ref="M4:M68" si="4">M3</f>
         <v>0</v>
       </c>
     </row>
@@ -3405,7 +3409,7 @@
         <v>25</v>
       </c>
       <c r="L52">
-        <f>VLOOKUP(A52+1,Balance!E:K,7,FALSE)</f>
+        <f>L51+200</f>
         <v>10200</v>
       </c>
       <c r="M52">
@@ -3447,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J64" si="6">J52+200</f>
+        <f t="shared" ref="J53:J68" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3455,7 +3459,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f>VLOOKUP(A53+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" ref="L53:L68" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -3505,7 +3509,7 @@
         <v>25</v>
       </c>
       <c r="L54">
-        <f>VLOOKUP(A54+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>10600</v>
       </c>
       <c r="M54">
@@ -3555,7 +3559,7 @@
         <v>25</v>
       </c>
       <c r="L55">
-        <f>VLOOKUP(A55+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>10800</v>
       </c>
       <c r="M55">
@@ -3605,7 +3609,7 @@
         <v>25</v>
       </c>
       <c r="L56">
-        <f>VLOOKUP(A56+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>11000</v>
       </c>
       <c r="M56">
@@ -3655,7 +3659,7 @@
         <v>25</v>
       </c>
       <c r="L57">
-        <f>VLOOKUP(A57+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>11200</v>
       </c>
       <c r="M57">
@@ -3705,7 +3709,7 @@
         <v>25</v>
       </c>
       <c r="L58">
-        <f>VLOOKUP(A58+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>11400</v>
       </c>
       <c r="M58">
@@ -3755,7 +3759,7 @@
         <v>25</v>
       </c>
       <c r="L59">
-        <f>VLOOKUP(A59+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>11600</v>
       </c>
       <c r="M59">
@@ -3772,11 +3776,11 @@
         <v>1-1</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60" si="7">IF(MOD(A60,5)=0,9021,25)</f>
+        <f t="shared" ref="C60" si="8">IF(MOD(A60,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60" si="8">IF(C60=9021,D55+1,IF(AND(C60=25,C59=25),D59+2000,D58+2000))</f>
+        <f t="shared" ref="D60" si="9">IF(C60=9021,D55+1,IF(AND(C60=25,C59=25),D59+2000,D58+2000))</f>
         <v>62000</v>
       </c>
       <c r="E60">
@@ -3805,7 +3809,7 @@
         <v>25</v>
       </c>
       <c r="L60">
-        <f>VLOOKUP(A60+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>11800</v>
       </c>
       <c r="M60">
@@ -3822,11 +3826,11 @@
         <v>1-1</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:C62" si="9">IF(MOD(A61,5)=0,9021,25)</f>
+        <f t="shared" ref="C61:C62" si="10">IF(MOD(A61,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:D62" si="10">IF(C61=9021,D56+1,IF(AND(C61=25,C60=25),D60+2000,D59+2000))</f>
+        <f t="shared" ref="D61:D62" si="11">IF(C61=9021,D56+1,IF(AND(C61=25,C60=25),D60+2000,D59+2000))</f>
         <v>64000</v>
       </c>
       <c r="E61">
@@ -3855,7 +3859,7 @@
         <v>25</v>
       </c>
       <c r="L61">
-        <f>VLOOKUP(A61+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>12000</v>
       </c>
       <c r="M61">
@@ -3872,11 +3876,11 @@
         <v>1-1</v>
       </c>
       <c r="C62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9021</v>
       </c>
       <c r="D62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="E62">
@@ -3905,7 +3909,7 @@
         <v>25</v>
       </c>
       <c r="L62">
-        <f>VLOOKUP(A62+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>12200</v>
       </c>
       <c r="M62">
@@ -3922,11 +3926,11 @@
         <v>1-1</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:C64" si="11">IF(MOD(A63,5)=0,9021,25)</f>
+        <f t="shared" ref="C63:C65" si="12">IF(MOD(A63,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D64" si="12">IF(C63=9021,D58+1,IF(AND(C63=25,C62=25),D62+2000,D61+2000))</f>
+        <f t="shared" ref="D63:D65" si="13">IF(C63=9021,D58+1,IF(AND(C63=25,C62=25),D62+2000,D61+2000))</f>
         <v>66000</v>
       </c>
       <c r="E63">
@@ -3955,7 +3959,7 @@
         <v>25</v>
       </c>
       <c r="L63">
-        <f>VLOOKUP(A63+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>12400</v>
       </c>
       <c r="M63">
@@ -3972,11 +3976,11 @@
         <v>1-1</v>
       </c>
       <c r="C64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="D64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>68000</v>
       </c>
       <c r="E64">
@@ -4005,17 +4009,217 @@
         <v>25</v>
       </c>
       <c r="L64">
-        <f>VLOOKUP(A64+1,Balance!E:K,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>12600</v>
       </c>
       <c r="M64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="13"/>
+        <v>70000</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f>VLOOKUP(A65,Balance!E:G,3,FALSE)</f>
+        <v>7.4036699999999998E+121</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="6"/>
+        <v>14600</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="7"/>
+        <v>12800</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C67" si="14">IF(MOD(A66,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D67" si="15">IF(C66=9021,D61+1,IF(AND(C66=25,C65=25),D65+2000,D64+2000))</f>
+        <v>72000</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f>VLOOKUP(A66,Balance!E:G,3,FALSE)</f>
+        <v>3.7758717000000002E+123</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="6"/>
+        <v>14800</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="7"/>
+        <v>13000</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="14"/>
+        <v>9021</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f>VLOOKUP(A67,Balance!E:G,3,FALSE)</f>
+        <v>1.9257E+125</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="6"/>
+        <v>15000</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="7"/>
+        <v>13200</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68" si="16">IF(MOD(A68,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68" si="17">IF(C68=9021,D63+1,IF(AND(C68=25,C67=25),D67+2000,D66+2000))</f>
+        <v>74000</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <f>VLOOKUP(A68,Balance!E:G,3,FALSE)</f>
+        <v>9.8210699999999988E+126</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="6"/>
+        <v>15200</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="7"/>
+        <v>13400</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 D3:J3 G33:J61 D4:D32 F4:J32 K2:K61 G62:K64 E4:E64 M2:M64 A3:C64">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M68 A3:C68 E4:E68 G62:K68">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4027,10 +4231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="B54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4275,7 +4479,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H72" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H75" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -5539,11 +5743,11 @@
         <v>124</v>
       </c>
       <c r="O38" s="17">
-        <f t="shared" ref="O38" si="12">POWER(10,N38)</f>
+        <f t="shared" ref="O38:O39" si="12">POWER(10,N38)</f>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="P38" s="17" t="str">
-        <f t="shared" ref="P38" si="13">RIGHT(O38,N38)</f>
+        <f t="shared" ref="P38:P39" si="13">RIGHT(O38,N38)</f>
         <v>1E+124</v>
       </c>
       <c r="Q38" s="11"/>
@@ -5585,10 +5789,20 @@
         <v>6200</v>
       </c>
       <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
+      <c r="M39" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N39" s="16">
+        <v>128</v>
+      </c>
+      <c r="O39" s="17">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="P39" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>1E+128</v>
+      </c>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
@@ -5660,7 +5874,7 @@
         <v>무</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f t="shared" ref="J41:J62" si="14">VLOOKUP(I41,M:P,4,FALSE)</f>
+        <f t="shared" ref="J41:J72" si="14">VLOOKUP(I41,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K41" s="11">
@@ -6518,11 +6732,11 @@
         <v>마</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f t="shared" ref="J63:J65" si="20">VLOOKUP(I63,M:P,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="21">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="20">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -6547,11 +6761,11 @@
         <v>마</v>
       </c>
       <c r="J64" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K64" s="11">
         <f t="shared" si="20"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K64" s="11">
-        <f t="shared" si="21"/>
         <v>11200</v>
       </c>
     </row>
@@ -6576,11 +6790,11 @@
         <v>마</v>
       </c>
       <c r="J65" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+108</v>
+      </c>
+      <c r="K65" s="11">
         <f t="shared" si="20"/>
-        <v>1E+108</v>
-      </c>
-      <c r="K65" s="11">
-        <f t="shared" si="21"/>
         <v>11400</v>
       </c>
     </row>
@@ -6589,11 +6803,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="22">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="21">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="23">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="22">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -6605,11 +6819,11 @@
         <v>살</v>
       </c>
       <c r="J66" s="16" t="str">
-        <f t="shared" ref="J66:J72" si="24">VLOOKUP(I66,M:P,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="25">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="23">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -6618,11 +6832,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>1094.3427살</v>
+      </c>
+      <c r="G67" s="17">
         <f t="shared" si="22"/>
-        <v>1094.3427살</v>
-      </c>
-      <c r="G67" s="17">
-        <f t="shared" si="23"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -6634,11 +6848,11 @@
         <v>살</v>
       </c>
       <c r="J67" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>11800</v>
       </c>
     </row>
@@ -6647,11 +6861,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>5.5812섬</v>
+      </c>
+      <c r="G68" s="17">
         <f t="shared" si="22"/>
-        <v>5.5812섬</v>
-      </c>
-      <c r="G68" s="17">
-        <f t="shared" si="23"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -6663,11 +6877,11 @@
         <v>섬</v>
       </c>
       <c r="J68" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>12000</v>
       </c>
     </row>
@@ -6676,11 +6890,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>284.6412섬</v>
+      </c>
+      <c r="G69" s="17">
         <f t="shared" si="22"/>
-        <v>284.6412섬</v>
-      </c>
-      <c r="G69" s="17">
-        <f t="shared" si="23"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -6692,11 +6906,11 @@
         <v>섬</v>
       </c>
       <c r="J69" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>12200</v>
       </c>
     </row>
@@ -6705,11 +6919,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>1.4517찰</v>
+      </c>
+      <c r="G70" s="17">
         <f t="shared" si="22"/>
-        <v>1.4517찰</v>
-      </c>
-      <c r="G70" s="17">
-        <f t="shared" si="23"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -6721,11 +6935,11 @@
         <v>찰</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>12400</v>
       </c>
     </row>
@@ -6734,11 +6948,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>74.0367찰</v>
+      </c>
+      <c r="G71" s="17">
         <f t="shared" si="22"/>
-        <v>74.0367찰</v>
-      </c>
-      <c r="G71" s="17">
-        <f t="shared" si="23"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -6750,11 +6964,11 @@
         <v>찰</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>12600</v>
       </c>
     </row>
@@ -6763,11 +6977,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>3775.8717찰</v>
+      </c>
+      <c r="G72" s="17">
         <f t="shared" si="22"/>
-        <v>3775.8717찰</v>
-      </c>
-      <c r="G72" s="17">
-        <f t="shared" si="23"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -6779,37 +6993,71 @@
         <v>찰</v>
       </c>
       <c r="J72" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K72" s="11">
+        <f t="shared" si="23"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E73" s="16">
+        <v>65</v>
+      </c>
+      <c r="F73" s="17" t="str">
+        <f t="shared" ref="F73:F74" si="24">H73&amp;I73</f>
+        <v>19.257교</v>
+      </c>
+      <c r="G73" s="17">
+        <f t="shared" ref="G73:G74" si="25">H73*J73</f>
+        <v>1.9257E+125</v>
+      </c>
+      <c r="H73" s="17">
+        <f t="shared" si="6"/>
+        <v>19.257000000000001</v>
+      </c>
+      <c r="I73" s="16" t="str" cm="1">
+        <f t="array" ref="I73">IF(AND(H72&gt;100,H73&lt;100),INDEX(M:M,MATCH(I72,M:M,0)+1,0),I72)</f>
+        <v>교</v>
+      </c>
+      <c r="J73" s="16" t="str">
+        <f t="shared" ref="J73:J104" si="26">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <v>1E+124</v>
+      </c>
+      <c r="K73" s="11">
+        <f t="shared" ref="K73:K74" si="27">$B$14*E73</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E74" s="16">
+        <v>66</v>
+      </c>
+      <c r="F74" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K72" s="11">
+        <v>982.107교</v>
+      </c>
+      <c r="G74" s="17">
         <f t="shared" si="25"/>
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E73" s="16"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-    </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E74" s="16"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-    </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E75" s="16"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
+        <v>9.8210699999999988E+126</v>
+      </c>
+      <c r="H74" s="17">
+        <f t="shared" si="6"/>
+        <v>982.10699999999997</v>
+      </c>
+      <c r="I74" s="16" t="str" cm="1">
+        <f t="array" ref="I74">IF(AND(H73&gt;100,H74&lt;100),INDEX(M:M,MATCH(I73,M:M,0)+1,0),I73)</f>
+        <v>교</v>
+      </c>
+      <c r="J74" s="16" t="str">
+        <f t="shared" si="26"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K74" s="11">
+        <f t="shared" si="27"/>
+        <v>13200</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
